--- a/99_Other/Dataset/Val_2_samples_dataset.xlsx
+++ b/99_Other/Dataset/Val_2_samples_dataset.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2FF98-63B4-4B18-A7CE-99AE889B21E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="2" r:id="rId1"/>
@@ -17,17 +18,26 @@
     <definedName name="Val2_samples_id">Dict!$B$2:$B$49</definedName>
     <definedName name="VariableList">Dict!$A$2:$A$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="100">
   <si>
     <t>DUT ID</t>
   </si>
@@ -324,12 +334,15 @@
   </si>
   <si>
     <t>FMOP</t>
+  </si>
+  <si>
+    <t>FMPR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +404,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -484,11 +497,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,20 +523,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,43 +557,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -631,13 +636,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -650,6 +648,26 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -666,13 +684,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="DUT id" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DUT id" dataDxfId="1">
       <calculatedColumnFormula>Val2_samples_id</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="DUT type" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DUT type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -949,354 +967,354 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1307,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1321,448 +1339,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A2" s="9" t="str">
+        <f t="shared" ref="A2:A49" si="0">Val2_samples_id</f>
         <v>02_6_1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A3" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_6_2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A4" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_6_3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A5" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_2_1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A6" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_2_2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A7" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_2_3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A8" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_3_1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A9" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_3_2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A10" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_3_3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A11" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_7_1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A12" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_7_2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A13" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_7_3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A14" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_8_1</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A15" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_8_2</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A16" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_8_3</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A17" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_4_1</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A18" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_4_2</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A19" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_4_3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A20" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_1_1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A21" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_1_2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A22" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_1_3</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A23" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_5_1</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A24" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_5_2</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A25" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>02_5_3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A26" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_9_1</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A27" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_9_2</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A28" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_9_3</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A29" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_16_1</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A30" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_16_2</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A31" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_16_3</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A32" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_10_1</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A33" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_10_2</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A34" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_10_3</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A35" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_12_1</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A36" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_12_2</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A37" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_12_3</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A38" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_14_1</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A39" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_14_2</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A40" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_14_3</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A41" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_13_1</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A42" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_13_2</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A43" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_13_3</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A44" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_15_1</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A45" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_15_2</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A46" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_15_3</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A47" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_11_1</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A48" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>03_11_2</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="str">
-        <f>Val2_samples_id</f>
+      <c r="A49" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>03_11_3</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>VariableList</formula1>
     </dataValidation>
   </dataValidations>
@@ -1774,7 +1792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1783,1587 +1801,1587 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="19" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="19"/>
+    <col min="1" max="1" width="14.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="17" customWidth="1"/>
+    <col min="4" max="11" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="15" t="str">
         <f t="array" ref="A2:A49">Val2_samples_id</f>
         <v>02_6_1</v>
       </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <v>9.73</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="15">
         <v>0.3</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="15">
         <v>0.41</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="15">
         <v>1.19</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="15">
         <v>5.82</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="15">
         <v>2.17</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="15">
         <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="15" t="str">
         <v>02_6_2</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>9.77</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <v>0.32</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <v>0.4</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="15">
         <v>1.2</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="15">
         <v>5.8</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="15">
         <v>2.08</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="15">
         <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="15" t="str">
         <v>02_6_3</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <v>9.77</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>0.35</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>0.35</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="15">
         <v>1.2</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <v>5.92</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="15">
         <v>1.98</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="15">
         <v>1.54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="str">
+      <c r="A5" s="15" t="str">
         <v>02_2_1</v>
       </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>9.7200000000000006</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>0.44</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>0.33</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="15">
         <v>1.2</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="15">
         <v>5.86</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="15">
         <v>2.02</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="15">
         <v>1.67</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="str">
+      <c r="A6" s="15" t="str">
         <v>02_2_2</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>9.7799999999999994</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <v>0.33</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>0.43</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>1.2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>5.86</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="15">
         <v>2.12</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="15">
         <v>1.66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="str">
+      <c r="A7" s="15" t="str">
         <v>02_2_3</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>9.7799999999999994</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <v>0.3</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>0.45</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <v>1.2</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>5.67</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="15">
         <v>2.2200000000000002</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="15">
         <v>1.62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="15" t="str">
         <v>02_3_1</v>
       </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>9.73</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <v>0.34</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="15">
         <v>0.39</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="15">
         <v>1.19</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="15">
         <v>5.88</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="15">
         <v>2.02</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="15">
         <v>1.67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="str">
+      <c r="A9" s="15" t="str">
         <v>02_3_2</v>
       </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>9.7899999999999991</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <v>0.23</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>0.47</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <v>1.2</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>5.78</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="15">
         <v>2.15</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="15">
         <v>1.63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="str">
+      <c r="A10" s="15" t="str">
         <v>02_3_3</v>
       </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>0.3</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>0.45</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>1.18</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>5.93</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="15">
         <v>1.92</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="15">
         <v>1.58</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="15" t="str">
         <v>02_7_1</v>
       </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <v>0.44</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <v>0.45</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>1.18</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>5.82</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="15">
         <v>2.09</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="15">
         <v>1.64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="str">
+      <c r="A12" s="15" t="str">
         <v>02_7_2</v>
       </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>9.74</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <v>0.22</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>0.5</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>1.18</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>5.71</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="15">
         <v>2.11</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="15">
         <v>1.59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="str">
+      <c r="A13" s="15" t="str">
         <v>02_7_3</v>
       </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>9.74</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>0.32</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <v>0.38</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <v>1.2</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>6.02</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="15">
         <v>2.0699999999999998</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="15">
         <v>1.62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="str">
+      <c r="A14" s="15" t="str">
         <v>02_8_1</v>
       </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>9.75</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>0.17</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>0.48</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>1.2</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>5.95</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="15">
         <v>1.93</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="15">
         <v>1.54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="15" t="str">
         <v>02_8_2</v>
       </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>9.76</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>0.4</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <v>0.34</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <v>1.18</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <v>5.89</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="15">
         <v>2.04</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="15">
         <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="15" t="str">
         <v>02_8_3</v>
       </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>9.7799999999999994</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>0.37</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>0.37</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>1.2</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>5.73</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="15">
         <v>2.17</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="15">
         <v>1.44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="str">
+      <c r="A17" s="15" t="str">
         <v>02_4_1</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>9.77</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>0.3</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>0.44</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>1.19</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>6.11</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="15">
         <v>1.7</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="15">
         <v>1.61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="str">
+      <c r="A18" s="15" t="str">
         <v>02_4_2</v>
       </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>0.46</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <v>0.42</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>1.2</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <v>6.05</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="15">
         <v>1.91</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="15">
         <v>1.69</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="str">
+      <c r="A19" s="15" t="str">
         <v>02_4_3</v>
       </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="15">
         <v>9.75</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <v>0.36</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="15">
         <v>0.38</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>1.19</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>6.01</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="15">
         <v>1.8</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="15">
         <v>1.65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="str">
+      <c r="A20" s="15" t="str">
         <v>02_1_1</v>
       </c>
-      <c r="B20" s="18">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>9.77</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="15">
         <v>0.44</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="15">
         <v>1.2</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="15">
         <v>6.26</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="15">
         <v>1.53</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="15">
         <v>1.69</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="str">
+      <c r="A21" s="15" t="str">
         <v>02_1_2</v>
       </c>
-      <c r="B21" s="18">
-        <v>1</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <v>9.75</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="15">
         <v>0.32</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <v>0.36</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="15">
         <v>1.19</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="15">
         <v>5.7</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="15">
         <v>2.1800000000000002</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="15">
         <v>1.65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="15" t="str">
         <v>02_1_3</v>
       </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="15">
         <v>9.75</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="15">
         <v>0.34</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="15">
         <v>1.18</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="15">
         <v>5.83</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="15">
         <v>2.0699999999999998</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="15">
         <v>1.59</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="str">
+      <c r="A23" s="15" t="str">
         <v>02_5_1</v>
       </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <v>9.75</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="15">
         <v>0.42</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="15">
         <v>0.39</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="15">
         <v>1.19</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="15">
         <v>5.86</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="15">
         <v>1.87</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="15">
         <v>1.7</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="str">
+      <c r="A24" s="15" t="str">
         <v>02_5_2</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>9.75</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="15">
         <v>0.3</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="15">
         <v>0.39</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="15">
         <v>1.2</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="15">
         <v>5.92</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="15">
         <v>1.98</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="15">
         <v>1.56</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="str">
+      <c r="A25" s="15" t="str">
         <v>02_5_3</v>
       </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="15">
         <v>9.77</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="15">
         <v>0.35</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="15">
         <v>0.4</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="15">
         <v>1.2</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="15">
         <v>5.8</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="15">
         <v>2.04</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="15">
         <v>1.61</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="str">
+      <c r="A26" s="15" t="str">
         <v>03_9_1</v>
       </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>11.56</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="15">
         <v>0.3</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="15">
         <v>0.48</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="15">
         <v>1.4</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="15">
         <v>6.95</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="15">
         <v>2.79</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="15">
         <v>1.27</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="str">
+      <c r="A27" s="15" t="str">
         <v>03_9_2</v>
       </c>
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="15">
         <v>11.62</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="15">
         <v>0.36</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="15">
         <v>1.4</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="15">
         <v>6.77</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="15">
         <v>1.99</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="str">
+      <c r="A28" s="15" t="str">
         <v>03_9_3</v>
       </c>
-      <c r="B28" s="18">
-        <v>1</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="15">
         <v>11.78</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="15">
         <v>0.2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <v>1.4</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="15">
         <v>6.31</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="15">
         <v>2.4</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="15">
         <v>2.41</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="str">
+      <c r="A29" s="15" t="str">
         <v>03_16_1</v>
       </c>
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="15">
         <v>11.74</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="15">
         <v>0.35</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="15">
         <v>0.46</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="15">
         <v>1.4</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="15">
         <v>7.15</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="15">
         <v>2.11</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="15">
         <v>1.88</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="str">
+      <c r="A30" s="15" t="str">
         <v>03_16_2</v>
       </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="15">
         <v>11.78</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="15">
         <v>0.33</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="15">
         <v>0.5</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="15">
         <v>1.4</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="15">
         <v>6.35</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="15">
         <v>2.02</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="15">
         <v>2.65</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="str">
+      <c r="A31" s="15" t="str">
         <v>03_16_3</v>
       </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="15">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="15">
         <v>11.73</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="15">
         <v>0.35</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="15">
         <v>0.48</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="15">
         <v>1.4</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="15">
         <v>6.92</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="15">
         <v>1.96</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="15">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="str">
+      <c r="A32" s="15" t="str">
         <v>03_10_1</v>
       </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="15">
         <v>11.56</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="15">
         <v>0.33</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="15">
         <v>0.54</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="15">
         <v>1.4</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="15">
         <v>6.73</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="15">
         <v>1.96</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="15">
         <v>2.35</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="str">
+      <c r="A33" s="15" t="str">
         <v>03_10_2</v>
       </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="15">
         <v>11.61</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="15">
         <v>0.5</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="15">
         <v>0.36</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="15">
         <v>1.4</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="15">
         <v>6.85</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="15">
         <v>1.93</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="15">
         <v>2.29</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="str">
+      <c r="A34" s="15" t="str">
         <v>03_10_3</v>
       </c>
-      <c r="B34" s="18">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="15">
         <v>11.55</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="15">
         <v>0.4</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="15">
         <v>0.45</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <v>1.4</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="15">
         <v>6.75</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="15">
         <v>1.99</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="15">
         <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="str">
+      <c r="A35" s="15" t="str">
         <v>03_12_1</v>
       </c>
-      <c r="B35" s="18">
-        <v>1</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <v>11.6</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="15">
         <v>0.27</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <v>0.47</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="15">
         <v>1.4</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <v>6.72</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="15">
         <v>1.99</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="15">
         <v>2.33</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="str">
+      <c r="A36" s="15" t="str">
         <v>03_12_2</v>
       </c>
-      <c r="B36" s="18">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <v>11.6</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <v>0.49</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <v>1.4</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <v>6.46</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="15">
         <v>2.04</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="15">
         <v>2.52</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="str">
+      <c r="A37" s="15" t="str">
         <v>03_12_3</v>
       </c>
-      <c r="B37" s="18">
-        <v>1</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="15">
         <v>11.67</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="15">
         <v>0.6</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="15">
         <v>0.39</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="15">
         <v>1.4</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="15">
         <v>6.77</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="15">
         <v>2.19</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="15">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="str">
+      <c r="A38" s="15" t="str">
         <v>03_14_1</v>
       </c>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="15">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="18">
         <v>11.56</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="15">
         <v>0.2</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="15">
         <v>0.5</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="15">
         <v>1.4</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="15">
         <v>6.7</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="15">
         <v>2.02</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="15">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="str">
+      <c r="A39" s="15" t="str">
         <v>03_14_2</v>
       </c>
-      <c r="B39" s="18">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="15">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="18">
         <v>11.57</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="15">
         <v>0.32</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="15">
         <v>0.49</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="15">
         <v>1.4</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="15">
         <v>6.56</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="15">
         <v>1.94</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="15">
         <v>2.42</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="str">
+      <c r="A40" s="15" t="str">
         <v>03_14_3</v>
       </c>
-      <c r="B40" s="18">
-        <v>1</v>
-      </c>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="15">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="18">
         <v>11.58</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="15">
         <v>0.22</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="15">
         <v>0.48</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="15">
         <v>1.4</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="15">
         <v>6.48</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="15">
         <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="str">
+      <c r="A41" s="15" t="str">
         <v>03_13_1</v>
       </c>
-      <c r="B41" s="18">
-        <v>1</v>
-      </c>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="18">
         <v>11.56</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="15">
         <v>0.3</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="15">
         <v>0.47</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="15">
         <v>1.4</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="15">
         <v>6.19</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="15">
         <v>2.77</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="15">
         <v>2.16</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="str">
+      <c r="A42" s="15" t="str">
         <v>03_13_2</v>
       </c>
-      <c r="B42" s="18">
-        <v>1</v>
-      </c>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="15">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="18">
         <v>11.61</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="15">
         <v>0.36</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="15">
         <v>0.49</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="15">
         <v>1.4</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="15">
         <v>7.01</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="15">
         <v>1.86</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="15">
         <v>2.17</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="str">
+      <c r="A43" s="15" t="str">
         <v>03_13_3</v>
       </c>
-      <c r="B43" s="18">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="18">
         <v>11.6</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="15">
         <v>0.31</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="15">
         <v>0.46</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="15">
         <v>1.4</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="15">
         <v>6.24</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="15">
         <v>2.38</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="15">
         <v>2.39</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="str">
+      <c r="A44" s="15" t="str">
         <v>03_15_1</v>
       </c>
-      <c r="B44" s="18">
-        <v>1</v>
-      </c>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="15">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="18">
         <v>11.58</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="15">
         <v>0.47</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="15">
         <v>1.4</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="15">
         <v>6.69</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="15">
         <v>2.15</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="15">
         <v>2.13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="str">
+      <c r="A45" s="15" t="str">
         <v>03_15_2</v>
       </c>
-      <c r="B45" s="18">
-        <v>1</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="18">
         <v>11.54</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="15">
         <v>0.23</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="15">
         <v>0.48</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="15">
         <v>1.4</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="15">
         <v>6.69</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="15">
         <v>1.96</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="15">
         <v>2.25</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="str">
+      <c r="A46" s="15" t="str">
         <v>03_15_3</v>
       </c>
-      <c r="B46" s="18">
-        <v>1</v>
-      </c>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="15">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="18">
         <v>11.57</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="15">
         <v>0.31</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="15">
         <v>0.45</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="15">
         <v>1.4</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="15">
         <v>7.25</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="15">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="15">
         <v>1.46</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="str">
+      <c r="A47" s="15" t="str">
         <v>03_11_1</v>
       </c>
-      <c r="B47" s="18">
-        <v>1</v>
-      </c>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="15">
+        <v>1</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="18">
         <v>11.59</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="15">
         <v>0.24</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="15">
         <v>0.49</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="15">
         <v>1.4</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="15">
         <v>6.76</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="15">
         <v>2.36</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="str">
+      <c r="A48" s="15" t="str">
         <v>03_11_2</v>
       </c>
-      <c r="B48" s="18">
-        <v>1</v>
-      </c>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="15">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="18">
         <v>11.62</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="15">
         <v>0.45</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="15">
         <v>0.46</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="15">
         <v>1.4</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="15">
         <v>6.46</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="15">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="15">
         <v>2.13</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="str">
+      <c r="A49" s="15" t="str">
         <v>03_11_3</v>
       </c>
-      <c r="B49" s="18">
-        <v>1</v>
-      </c>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="15">
+        <v>1</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="18">
         <v>11.59</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="15">
         <v>0.44</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="15">
         <v>0.43</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="15">
         <v>1.4</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="15">
         <v>6.87</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="15">
         <v>2.02</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="15">
         <v>2.06</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:U1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:U1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>VariableList</formula1>
     </dataValidation>
   </dataValidations>
@@ -3372,11 +3390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,3412 +3406,3559 @@
     <col min="22" max="22" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="X1" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
         <f t="array" ref="A2:A49">Val2_samples_id</f>
         <v>02_6_1</v>
       </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="22">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="20">
         <v>4.92</v>
       </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2" s="18">
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
         <f t="array" ref="N2:N49">0</f>
         <v>0</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="15">
         <v>1.22</v>
       </c>
-      <c r="Q2" s="18">
-        <v>1</v>
-      </c>
-      <c r="R2" s="18">
-        <v>1</v>
-      </c>
-      <c r="S2" s="18">
+      <c r="Q2" s="15">
+        <v>1</v>
+      </c>
+      <c r="R2" s="15">
+        <v>1</v>
+      </c>
+      <c r="S2" s="15">
         <v>0.24</v>
       </c>
-      <c r="T2" s="18">
-        <v>1</v>
-      </c>
-      <c r="U2" s="18">
-        <v>1</v>
-      </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="str">
+      <c r="T2" s="15">
+        <v>1</v>
+      </c>
+      <c r="U2" s="15">
+        <v>1</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15">
+        <v>0</v>
+      </c>
+      <c r="X2" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
         <v>02_6_2</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="20">
         <v>3.83</v>
       </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="15">
         <v>1.24</v>
       </c>
-      <c r="Q3" s="18">
-        <v>1</v>
-      </c>
-      <c r="R3" s="18">
-        <v>1</v>
-      </c>
-      <c r="S3" s="18">
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15">
         <v>0.23</v>
       </c>
-      <c r="T3" s="18">
-        <v>1</v>
-      </c>
-      <c r="U3" s="18">
-        <v>1</v>
-      </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="str">
+      <c r="T3" s="15">
+        <v>1</v>
+      </c>
+      <c r="U3" s="15">
+        <v>1</v>
+      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
         <v>02_6_3</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <v>2</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <v>5.21</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <v>5.21</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <v>4.93</v>
       </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18" t="s">
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="15">
         <v>1.29</v>
       </c>
-      <c r="Q4" s="18">
-        <v>1</v>
-      </c>
-      <c r="R4" s="18">
-        <v>1</v>
-      </c>
-      <c r="S4" s="18">
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
         <v>0.05</v>
       </c>
-      <c r="T4" s="18">
-        <v>1</v>
-      </c>
-      <c r="U4" s="18">
-        <v>0</v>
-      </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="str">
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="str">
         <v>02_2_1</v>
       </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>6.42</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <f t="array" ref="L5:M7">0</f>
         <v>0</v>
       </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18" t="s">
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="15">
         <v>1.22</v>
       </c>
-      <c r="Q5" s="18">
-        <v>1</v>
-      </c>
-      <c r="R5" s="18">
-        <v>1</v>
-      </c>
-      <c r="S5" s="18">
+      <c r="Q5" s="15">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
         <v>0.27</v>
       </c>
-      <c r="T5" s="18">
-        <v>1</v>
-      </c>
-      <c r="U5" s="18">
-        <v>1</v>
-      </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="str">
+      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1</v>
+      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="str">
         <v>02_2_2</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>5.41</v>
       </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18" t="s">
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="15">
         <v>1.21</v>
       </c>
-      <c r="Q6" s="18">
-        <v>1</v>
-      </c>
-      <c r="R6" s="18">
-        <v>1</v>
-      </c>
-      <c r="S6" s="18">
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15">
         <v>0.11</v>
       </c>
-      <c r="T6" s="18">
-        <v>1</v>
-      </c>
-      <c r="U6" s="18">
-        <v>1</v>
-      </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="str">
+      <c r="T6" s="15">
+        <v>1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1</v>
+      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="str">
         <v>02_2_3</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>2</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>5.49</v>
       </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="s">
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="15">
         <v>1.21</v>
       </c>
-      <c r="Q7" s="18">
-        <v>1</v>
-      </c>
-      <c r="R7" s="18">
-        <v>1</v>
-      </c>
-      <c r="S7" s="18">
+      <c r="Q7" s="15">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T7" s="18">
-        <v>1</v>
-      </c>
-      <c r="U7" s="18">
-        <v>1</v>
-      </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="str">
+      <c r="T7" s="15">
+        <v>1</v>
+      </c>
+      <c r="U7" s="15">
+        <v>1</v>
+      </c>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="str">
         <v>02_3_1</v>
       </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <v>6.22</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <v>4.32</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="15">
         <v>5.0199999999999996</v>
       </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="s">
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="15">
         <v>1.18</v>
       </c>
-      <c r="Q8" s="18">
-        <v>1</v>
-      </c>
-      <c r="R8" s="18">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
         <v>-1</v>
       </c>
-      <c r="T8" s="18">
-        <v>1</v>
-      </c>
-      <c r="U8" s="18">
-        <v>1</v>
-      </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="str">
+      <c r="T8" s="15">
+        <v>1</v>
+      </c>
+      <c r="U8" s="15">
+        <v>1</v>
+      </c>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="str">
         <v>02_3_2</v>
       </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <v>5.67</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f t="array" ref="L9:M12">0</f>
         <v>0</v>
       </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18" t="s">
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="15">
         <v>1.17</v>
       </c>
-      <c r="Q9" s="18">
-        <v>1</v>
-      </c>
-      <c r="R9" s="18">
-        <v>1</v>
-      </c>
-      <c r="S9" s="18">
+      <c r="Q9" s="15">
+        <v>1</v>
+      </c>
+      <c r="R9" s="15">
+        <v>1</v>
+      </c>
+      <c r="S9" s="15">
         <v>0.18</v>
       </c>
-      <c r="T9" s="18">
-        <v>1</v>
-      </c>
-      <c r="U9" s="18">
-        <v>1</v>
-      </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="str">
+      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="U9" s="15">
+        <v>1</v>
+      </c>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
         <v>02_3_3</v>
       </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>2</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>5.48</v>
       </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18" t="s">
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="15">
         <v>1.21</v>
       </c>
-      <c r="Q10" s="18">
-        <v>1</v>
-      </c>
-      <c r="R10" s="18">
-        <v>1</v>
-      </c>
-      <c r="S10" s="18">
+      <c r="Q10" s="15">
+        <v>1</v>
+      </c>
+      <c r="R10" s="15">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T10" s="18">
-        <v>1</v>
-      </c>
-      <c r="U10" s="18">
-        <v>1</v>
-      </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
+      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <v>1</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="str">
         <v>02_7_1</v>
       </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <v>6.2</v>
       </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
-        <v>0</v>
-      </c>
-      <c r="O11" s="18" t="s">
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="15">
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q11" s="18">
-        <v>1</v>
-      </c>
-      <c r="R11" s="18">
-        <v>1</v>
-      </c>
-      <c r="S11" s="18">
+      <c r="Q11" s="15">
+        <v>1</v>
+      </c>
+      <c r="R11" s="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
         <v>0.18</v>
       </c>
-      <c r="T11" s="18">
-        <v>1</v>
-      </c>
-      <c r="U11" s="18">
-        <v>1</v>
-      </c>
-      <c r="V11" s="16"/>
-      <c r="W11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="str">
+      <c r="T11" s="15">
+        <v>1</v>
+      </c>
+      <c r="U11" s="15">
+        <v>1</v>
+      </c>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="str">
         <v>02_7_2</v>
       </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>4.71</v>
       </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-      <c r="O12" s="18" t="s">
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="15">
         <v>1.2</v>
       </c>
-      <c r="Q12" s="18">
-        <v>1</v>
-      </c>
-      <c r="R12" s="18">
-        <v>1</v>
-      </c>
-      <c r="S12" s="18">
+      <c r="Q12" s="15">
+        <v>1</v>
+      </c>
+      <c r="R12" s="15">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15">
         <v>0.26</v>
       </c>
-      <c r="T12" s="18">
-        <v>1</v>
-      </c>
-      <c r="U12" s="18">
-        <v>1</v>
-      </c>
-      <c r="V12" s="16"/>
-      <c r="W12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="str">
+      <c r="T12" s="15">
+        <v>1</v>
+      </c>
+      <c r="U12" s="15">
+        <v>1</v>
+      </c>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="str">
         <v>02_7_3</v>
       </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>2</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="20">
         <v>6.19</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <v>5.17</v>
       </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18" t="s">
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="15">
         <v>1.21</v>
       </c>
-      <c r="Q13" s="18">
-        <v>1</v>
-      </c>
-      <c r="R13" s="18">
-        <v>1</v>
-      </c>
-      <c r="S13" s="18">
+      <c r="Q13" s="15">
+        <v>1</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15">
         <v>0.19</v>
       </c>
-      <c r="T13" s="18">
-        <v>1</v>
-      </c>
-      <c r="U13" s="18">
-        <v>1</v>
-      </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="str">
+      <c r="T13" s="15">
+        <v>1</v>
+      </c>
+      <c r="U13" s="15">
+        <v>1</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="str">
         <v>02_8_1</v>
       </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="20">
         <v>5.45</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <f t="array" ref="L14:M17">0</f>
         <v>0</v>
       </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18" t="s">
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="15">
         <v>1.25</v>
       </c>
-      <c r="Q14" s="18">
-        <v>1</v>
-      </c>
-      <c r="R14" s="18">
-        <v>1</v>
-      </c>
-      <c r="S14" s="18">
+      <c r="Q14" s="15">
+        <v>1</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T14" s="18">
-        <v>1</v>
-      </c>
-      <c r="U14" s="18">
-        <v>1</v>
-      </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
+      <c r="T14" s="15">
+        <v>1</v>
+      </c>
+      <c r="U14" s="15">
+        <v>1</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15">
+        <v>1</v>
+      </c>
+      <c r="X14" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="str">
         <v>02_8_2</v>
       </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="22">
-        <v>1</v>
-      </c>
-      <c r="J15" s="22" t="s">
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="20">
         <v>5.46</v>
       </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0</v>
-      </c>
-      <c r="N15" s="18">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18" t="s">
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="15">
         <v>1.21</v>
       </c>
-      <c r="Q15" s="18">
-        <v>1</v>
-      </c>
-      <c r="R15" s="18">
-        <v>1</v>
-      </c>
-      <c r="S15" s="18">
+      <c r="Q15" s="15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15">
         <v>0.25</v>
       </c>
-      <c r="T15" s="18">
-        <v>1</v>
-      </c>
-      <c r="U15" s="18">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="str">
+      <c r="T15" s="15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15">
+        <v>1</v>
+      </c>
+      <c r="X15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
         <v>02_8_3</v>
       </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>2</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="20">
         <v>5.09</v>
       </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="N16" s="18">
-        <v>0</v>
-      </c>
-      <c r="O16" s="18" t="s">
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="15">
         <v>1.22</v>
       </c>
-      <c r="Q16" s="18">
-        <v>1</v>
-      </c>
-      <c r="R16" s="18">
-        <v>1</v>
-      </c>
-      <c r="S16" s="18">
+      <c r="Q16" s="15">
+        <v>1</v>
+      </c>
+      <c r="R16" s="15">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15">
         <v>0.24</v>
       </c>
-      <c r="T16" s="18">
-        <v>1</v>
-      </c>
-      <c r="U16" s="18">
-        <v>1</v>
-      </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="str">
+      <c r="T16" s="15">
+        <v>1</v>
+      </c>
+      <c r="U16" s="15">
+        <v>1</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15">
+        <v>1</v>
+      </c>
+      <c r="X16" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <v>02_4_1</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22" t="s">
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="20">
         <v>5.6</v>
       </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17" s="18">
-        <v>0</v>
-      </c>
-      <c r="O17" s="18" t="s">
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="15">
         <v>1.27</v>
       </c>
-      <c r="Q17" s="18">
-        <v>1</v>
-      </c>
-      <c r="R17" s="18">
-        <v>1</v>
-      </c>
-      <c r="S17" s="18">
+      <c r="Q17" s="15">
+        <v>1</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15">
         <v>0.21</v>
       </c>
-      <c r="T17" s="18">
-        <v>1</v>
-      </c>
-      <c r="U17" s="18">
-        <v>1</v>
-      </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="str">
+      <c r="T17" s="15">
+        <v>1</v>
+      </c>
+      <c r="U17" s="15">
+        <v>1</v>
+      </c>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="str">
         <v>02_4_2</v>
       </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="20">
         <v>5.61</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <v>4.87</v>
       </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="18" t="s">
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="15">
         <v>1.22</v>
       </c>
-      <c r="Q18" s="18">
-        <v>1</v>
-      </c>
-      <c r="R18" s="18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="18">
+      <c r="Q18" s="15">
+        <v>1</v>
+      </c>
+      <c r="R18" s="15">
+        <v>1</v>
+      </c>
+      <c r="S18" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T18" s="18">
-        <v>1</v>
-      </c>
-      <c r="U18" s="18">
-        <v>1</v>
-      </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="str">
+      <c r="T18" s="15">
+        <v>1</v>
+      </c>
+      <c r="U18" s="15">
+        <v>1</v>
+      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="str">
         <v>02_4_3</v>
       </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22" t="s">
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="20">
         <v>5.78</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <f t="array" ref="L19:M22">0</f>
         <v>0</v>
       </c>
-      <c r="M19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18" t="s">
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="15">
         <v>1.24</v>
       </c>
-      <c r="Q19" s="18">
-        <v>1</v>
-      </c>
-      <c r="R19" s="18">
-        <v>1</v>
-      </c>
-      <c r="S19" s="18">
+      <c r="Q19" s="15">
+        <v>1</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15">
         <v>0.26</v>
       </c>
-      <c r="T19" s="18">
-        <v>1</v>
-      </c>
-      <c r="U19" s="18">
-        <v>1</v>
-      </c>
-      <c r="V19" s="16"/>
-      <c r="W19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="str">
+      <c r="T19" s="15">
+        <v>1</v>
+      </c>
+      <c r="U19" s="15">
+        <v>1</v>
+      </c>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="str">
         <v>02_1_1</v>
       </c>
-      <c r="B20" s="18">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22" t="s">
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="20">
         <v>5.62</v>
       </c>
-      <c r="L20" s="18">
-        <v>0</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18" t="s">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="15">
         <v>1.22</v>
       </c>
-      <c r="Q20" s="18">
-        <v>1</v>
-      </c>
-      <c r="R20" s="18">
-        <v>1</v>
-      </c>
-      <c r="S20" s="18">
+      <c r="Q20" s="15">
+        <v>1</v>
+      </c>
+      <c r="R20" s="15">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15">
         <v>0.23</v>
       </c>
-      <c r="T20" s="18">
-        <v>1</v>
-      </c>
-      <c r="U20" s="18">
-        <v>1</v>
-      </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="str">
+      <c r="T20" s="15">
+        <v>1</v>
+      </c>
+      <c r="U20" s="15">
+        <v>1</v>
+      </c>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="str">
         <v>02_1_2</v>
       </c>
-      <c r="B21" s="18">
-        <v>1</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="22" t="s">
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <v>5.84</v>
       </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18">
-        <v>0</v>
-      </c>
-      <c r="O21" s="18" t="s">
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="15">
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q21" s="18">
-        <v>1</v>
-      </c>
-      <c r="R21" s="18">
-        <v>1</v>
-      </c>
-      <c r="S21" s="18">
+      <c r="Q21" s="15">
+        <v>1</v>
+      </c>
+      <c r="R21" s="15">
+        <v>1</v>
+      </c>
+      <c r="S21" s="15">
         <v>0.25</v>
       </c>
-      <c r="T21" s="18">
-        <v>1</v>
-      </c>
-      <c r="U21" s="18">
-        <v>1</v>
-      </c>
-      <c r="V21" s="16"/>
-      <c r="W21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="str">
+      <c r="T21" s="15">
+        <v>1</v>
+      </c>
+      <c r="U21" s="15">
+        <v>1</v>
+      </c>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="str">
         <v>02_1_3</v>
       </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22" t="s">
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="20">
         <v>5.46</v>
       </c>
-      <c r="L22" s="18">
-        <v>0</v>
-      </c>
-      <c r="M22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18">
-        <v>0</v>
-      </c>
-      <c r="O22" s="18" t="s">
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="15">
         <v>1.21</v>
       </c>
-      <c r="Q22" s="18">
-        <v>1</v>
-      </c>
-      <c r="R22" s="18">
-        <v>1</v>
-      </c>
-      <c r="S22" s="18">
+      <c r="Q22" s="15">
+        <v>1</v>
+      </c>
+      <c r="R22" s="15">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15">
         <v>0.2</v>
       </c>
-      <c r="T22" s="18">
-        <v>1</v>
-      </c>
-      <c r="U22" s="18">
-        <v>1</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="str">
+      <c r="T22" s="15">
+        <v>1</v>
+      </c>
+      <c r="U22" s="15">
+        <v>1</v>
+      </c>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <v>02_5_1</v>
       </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="20">
         <v>5.79</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="15">
         <v>5.19</v>
       </c>
-      <c r="M23" s="18">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18">
-        <v>0</v>
-      </c>
-      <c r="O23" s="18" t="s">
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="15">
         <v>1.24</v>
       </c>
-      <c r="Q23" s="18">
-        <v>1</v>
-      </c>
-      <c r="R23" s="18">
-        <v>1</v>
-      </c>
-      <c r="S23" s="18">
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+      <c r="R23" s="15">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15">
         <v>0.16</v>
       </c>
-      <c r="T23" s="18">
-        <v>1</v>
-      </c>
-      <c r="U23" s="18">
-        <v>1</v>
-      </c>
-      <c r="V23" s="16"/>
-      <c r="W23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="str">
+      <c r="T23" s="15">
+        <v>1</v>
+      </c>
+      <c r="U23" s="15">
+        <v>1</v>
+      </c>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="str">
         <v>02_5_2</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22" t="s">
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="20">
         <v>6.81</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f t="array" ref="L24:M45">0</f>
         <v>0</v>
       </c>
-      <c r="M24" s="18">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18">
-        <v>0</v>
-      </c>
-      <c r="O24" s="18" t="s">
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="15">
         <v>1.23</v>
       </c>
-      <c r="Q24" s="18">
-        <v>1</v>
-      </c>
-      <c r="R24" s="18">
-        <v>1</v>
-      </c>
-      <c r="S24" s="18">
+      <c r="Q24" s="15">
+        <v>1</v>
+      </c>
+      <c r="R24" s="15">
+        <v>1</v>
+      </c>
+      <c r="S24" s="15">
         <v>0.24</v>
       </c>
-      <c r="T24" s="18">
-        <v>1</v>
-      </c>
-      <c r="U24" s="18">
-        <v>1</v>
-      </c>
-      <c r="V24" s="16"/>
-      <c r="W24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="str">
+      <c r="T24" s="15">
+        <v>1</v>
+      </c>
+      <c r="U24" s="15">
+        <v>1</v>
+      </c>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="str">
         <v>02_5_3</v>
       </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="20">
         <v>6.12</v>
       </c>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18">
-        <v>0</v>
-      </c>
-      <c r="O25" s="18" t="s">
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="15">
         <v>1.23</v>
       </c>
-      <c r="Q25" s="18">
-        <v>1</v>
-      </c>
-      <c r="R25" s="18">
-        <v>1</v>
-      </c>
-      <c r="S25" s="18">
+      <c r="Q25" s="15">
+        <v>1</v>
+      </c>
+      <c r="R25" s="15">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15">
         <v>0.27</v>
       </c>
-      <c r="T25" s="18">
-        <v>1</v>
-      </c>
-      <c r="U25" s="18">
-        <v>1</v>
-      </c>
-      <c r="V25" s="16"/>
-      <c r="W25" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="str">
+      <c r="T25" s="15">
+        <v>1</v>
+      </c>
+      <c r="U25" s="15">
+        <v>1</v>
+      </c>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
         <v>03_9_1</v>
       </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22" t="s">
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <v>6.18</v>
       </c>
-      <c r="L26" s="18">
-        <v>0</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0</v>
-      </c>
-      <c r="N26" s="18">
-        <v>0</v>
-      </c>
-      <c r="O26" s="18" t="s">
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="15">
         <v>1.45</v>
       </c>
-      <c r="Q26" s="18">
-        <v>1</v>
-      </c>
-      <c r="R26" s="18">
-        <v>1</v>
-      </c>
-      <c r="S26" s="18">
+      <c r="Q26" s="15">
+        <v>1</v>
+      </c>
+      <c r="R26" s="15">
+        <v>1</v>
+      </c>
+      <c r="S26" s="15">
         <v>0.33</v>
       </c>
-      <c r="T26" s="18">
-        <v>1</v>
-      </c>
-      <c r="U26" s="18">
-        <v>1</v>
-      </c>
-      <c r="V26" s="16"/>
-      <c r="W26" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="str">
+      <c r="T26" s="15">
+        <v>1</v>
+      </c>
+      <c r="U26" s="15">
+        <v>1</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <v>03_9_2</v>
       </c>
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22" t="s">
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="20">
         <v>6.19</v>
       </c>
-      <c r="L27" s="18">
-        <v>0</v>
-      </c>
-      <c r="M27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="18">
-        <v>0</v>
-      </c>
-      <c r="O27" s="18" t="s">
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q27" s="18">
-        <v>1</v>
-      </c>
-      <c r="R27" s="18">
-        <v>1</v>
-      </c>
-      <c r="S27" s="18">
+      <c r="Q27" s="15">
+        <v>1</v>
+      </c>
+      <c r="R27" s="15">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15">
         <v>0.26</v>
       </c>
-      <c r="T27" s="18">
-        <v>1</v>
-      </c>
-      <c r="U27" s="18">
-        <v>1</v>
-      </c>
-      <c r="V27" s="16"/>
-      <c r="W27" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="str">
+      <c r="T27" s="15">
+        <v>1</v>
+      </c>
+      <c r="U27" s="15">
+        <v>1</v>
+      </c>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="str">
         <v>03_9_3</v>
       </c>
-      <c r="B28" s="18">
-        <v>1</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="20">
         <v>5.71</v>
       </c>
-      <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18">
-        <v>0</v>
-      </c>
-      <c r="O28" s="18" t="s">
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="15">
         <v>1.44</v>
       </c>
-      <c r="Q28" s="18">
-        <v>0</v>
-      </c>
-      <c r="R28" s="18">
-        <v>0</v>
-      </c>
-      <c r="S28" s="18">
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
         <v>-1</v>
       </c>
-      <c r="T28" s="18">
-        <v>1</v>
-      </c>
-      <c r="U28" s="18">
-        <v>0</v>
-      </c>
-      <c r="V28" s="16"/>
-      <c r="W28" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="str">
+      <c r="T28" s="15">
+        <v>1</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <v>03_16_1</v>
       </c>
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="22" t="s">
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="20">
         <v>5.92</v>
       </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0</v>
-      </c>
-      <c r="N29" s="18">
-        <v>0</v>
-      </c>
-      <c r="O29" s="18" t="s">
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q29" s="18">
-        <v>1</v>
-      </c>
-      <c r="R29" s="18">
-        <v>1</v>
-      </c>
-      <c r="S29" s="18">
+      <c r="Q29" s="15">
+        <v>1</v>
+      </c>
+      <c r="R29" s="15">
+        <v>1</v>
+      </c>
+      <c r="S29" s="15">
         <v>0.31</v>
       </c>
-      <c r="T29" s="18">
-        <v>1</v>
-      </c>
-      <c r="U29" s="18">
-        <v>1</v>
-      </c>
-      <c r="V29" s="16"/>
-      <c r="W29" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="str">
+      <c r="T29" s="15">
+        <v>1</v>
+      </c>
+      <c r="U29" s="15">
+        <v>1</v>
+      </c>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15">
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="str">
         <v>03_16_2</v>
       </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="22" t="s">
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="20">
         <v>7.19</v>
       </c>
-      <c r="L30" s="18">
-        <v>0</v>
-      </c>
-      <c r="M30" s="18">
-        <v>0</v>
-      </c>
-      <c r="N30" s="18">
-        <v>0</v>
-      </c>
-      <c r="O30" s="18" t="s">
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="15">
         <v>1.37</v>
       </c>
-      <c r="Q30" s="18">
-        <v>1</v>
-      </c>
-      <c r="R30" s="18">
-        <v>1</v>
-      </c>
-      <c r="S30" s="18">
+      <c r="Q30" s="15">
+        <v>1</v>
+      </c>
+      <c r="R30" s="15">
+        <v>1</v>
+      </c>
+      <c r="S30" s="15">
         <v>0.27</v>
       </c>
-      <c r="T30" s="18">
-        <v>1</v>
-      </c>
-      <c r="U30" s="18">
-        <v>1</v>
-      </c>
-      <c r="V30" s="16"/>
-      <c r="W30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="str">
+      <c r="T30" s="15">
+        <v>1</v>
+      </c>
+      <c r="U30" s="15">
+        <v>1</v>
+      </c>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="str">
         <v>03_16_3</v>
       </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="15">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="22" t="s">
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="20">
         <v>5.65</v>
       </c>
-      <c r="L31" s="18">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18">
-        <v>0</v>
-      </c>
-      <c r="N31" s="18">
-        <v>0</v>
-      </c>
-      <c r="O31" s="18" t="s">
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="15">
         <v>1.41</v>
       </c>
-      <c r="Q31" s="18">
-        <v>1</v>
-      </c>
-      <c r="R31" s="18">
-        <v>1</v>
-      </c>
-      <c r="S31" s="18">
+      <c r="Q31" s="15">
+        <v>1</v>
+      </c>
+      <c r="R31" s="15">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15">
         <v>0.32</v>
       </c>
-      <c r="T31" s="18">
-        <v>1</v>
-      </c>
-      <c r="U31" s="18">
-        <v>1</v>
-      </c>
-      <c r="V31" s="16"/>
-      <c r="W31" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="str">
+      <c r="T31" s="15">
+        <v>1</v>
+      </c>
+      <c r="U31" s="15">
+        <v>1</v>
+      </c>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
         <v>03_10_1</v>
       </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="22" t="s">
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="20">
         <v>6.69</v>
       </c>
-      <c r="L32" s="18">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18">
-        <v>0</v>
-      </c>
-      <c r="N32" s="18">
-        <v>0</v>
-      </c>
-      <c r="O32" s="18" t="s">
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="15">
         <v>1.43</v>
       </c>
-      <c r="Q32" s="18">
-        <v>0</v>
-      </c>
-      <c r="R32" s="18">
-        <v>1</v>
-      </c>
-      <c r="S32" s="18">
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+      <c r="R32" s="15">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T32" s="18">
-        <v>1</v>
-      </c>
-      <c r="U32" s="18">
-        <v>1</v>
-      </c>
-      <c r="V32" s="16"/>
-      <c r="W32" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="str">
+      <c r="T32" s="15">
+        <v>1</v>
+      </c>
+      <c r="U32" s="15">
+        <v>1</v>
+      </c>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
+      <c r="X32" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="str">
         <v>03_10_2</v>
       </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="22" t="s">
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="20">
         <v>6.19</v>
       </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
-        <v>0</v>
-      </c>
-      <c r="O33" s="18" t="s">
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="15">
         <v>1.42</v>
       </c>
-      <c r="Q33" s="18">
-        <v>1</v>
-      </c>
-      <c r="R33" s="18">
-        <v>1</v>
-      </c>
-      <c r="S33" s="18">
+      <c r="Q33" s="15">
+        <v>1</v>
+      </c>
+      <c r="R33" s="15">
+        <v>1</v>
+      </c>
+      <c r="S33" s="15">
         <v>0.31</v>
       </c>
-      <c r="T33" s="18">
-        <v>1</v>
-      </c>
-      <c r="U33" s="18">
-        <v>1</v>
-      </c>
-      <c r="V33" s="16"/>
-      <c r="W33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="str">
+      <c r="T33" s="15">
+        <v>1</v>
+      </c>
+      <c r="U33" s="15">
+        <v>1</v>
+      </c>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="str">
         <v>03_10_3</v>
       </c>
-      <c r="B34" s="18">
-        <v>1</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="22" t="s">
+      <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="20">
         <v>5.61</v>
       </c>
-      <c r="L34" s="18">
-        <v>0</v>
-      </c>
-      <c r="M34" s="18">
-        <v>0</v>
-      </c>
-      <c r="N34" s="18">
-        <v>0</v>
-      </c>
-      <c r="O34" s="18" t="s">
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="15">
         <v>1.41</v>
       </c>
-      <c r="Q34" s="18">
-        <v>1</v>
-      </c>
-      <c r="R34" s="18">
-        <v>1</v>
-      </c>
-      <c r="S34" s="18">
+      <c r="Q34" s="15">
+        <v>1</v>
+      </c>
+      <c r="R34" s="15">
+        <v>1</v>
+      </c>
+      <c r="S34" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T34" s="18">
-        <v>1</v>
-      </c>
-      <c r="U34" s="18">
-        <v>1</v>
-      </c>
-      <c r="V34" s="16"/>
-      <c r="W34" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="str">
+      <c r="T34" s="15">
+        <v>1</v>
+      </c>
+      <c r="U34" s="15">
+        <v>1</v>
+      </c>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15">
+        <v>0</v>
+      </c>
+      <c r="X34" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="str">
         <v>03_12_1</v>
       </c>
-      <c r="B35" s="18">
-        <v>1</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="22">
-        <v>0</v>
-      </c>
-      <c r="J35" s="22" t="s">
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="20">
         <v>5.54</v>
       </c>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="18">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18">
-        <v>0</v>
-      </c>
-      <c r="O35" s="18" t="s">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="15">
         <v>1.42</v>
       </c>
-      <c r="Q35" s="18">
-        <v>1</v>
-      </c>
-      <c r="R35" s="18">
-        <v>1</v>
-      </c>
-      <c r="S35" s="18">
+      <c r="Q35" s="15">
+        <v>1</v>
+      </c>
+      <c r="R35" s="15">
+        <v>1</v>
+      </c>
+      <c r="S35" s="15">
         <v>0.26</v>
       </c>
-      <c r="T35" s="18">
-        <v>1</v>
-      </c>
-      <c r="U35" s="18">
-        <v>1</v>
-      </c>
-      <c r="V35" s="16"/>
-      <c r="W35" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="str">
+      <c r="T35" s="15">
+        <v>1</v>
+      </c>
+      <c r="U35" s="15">
+        <v>1</v>
+      </c>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="str">
         <v>03_12_2</v>
       </c>
-      <c r="B36" s="18">
-        <v>1</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22" t="s">
+      <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="20">
         <v>5.75</v>
       </c>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18">
-        <v>0</v>
-      </c>
-      <c r="O36" s="18" t="s">
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="15">
         <v>1.48</v>
       </c>
-      <c r="Q36" s="18">
-        <v>0</v>
-      </c>
-      <c r="R36" s="18">
-        <v>1</v>
-      </c>
-      <c r="S36" s="18">
+      <c r="Q36" s="15">
+        <v>0</v>
+      </c>
+      <c r="R36" s="15">
+        <v>1</v>
+      </c>
+      <c r="S36" s="15">
         <v>0.25</v>
       </c>
-      <c r="T36" s="18">
-        <v>1</v>
-      </c>
-      <c r="U36" s="18">
-        <v>1</v>
-      </c>
-      <c r="V36" s="16"/>
-      <c r="W36" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="str">
+      <c r="T36" s="15">
+        <v>1</v>
+      </c>
+      <c r="U36" s="15">
+        <v>1</v>
+      </c>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="str">
         <v>03_12_3</v>
       </c>
-      <c r="B37" s="18">
-        <v>1</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="22">
-        <v>0</v>
-      </c>
-      <c r="J37" s="22" t="s">
+      <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="20">
         <v>6.19</v>
       </c>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18">
-        <v>0</v>
-      </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18" t="s">
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="15">
         <v>1.38</v>
       </c>
-      <c r="Q37" s="18">
-        <v>1</v>
-      </c>
-      <c r="R37" s="18">
-        <v>1</v>
-      </c>
-      <c r="S37" s="18">
+      <c r="Q37" s="15">
+        <v>1</v>
+      </c>
+      <c r="R37" s="15">
+        <v>1</v>
+      </c>
+      <c r="S37" s="15">
         <v>0.26</v>
       </c>
-      <c r="T37" s="18">
-        <v>1</v>
-      </c>
-      <c r="U37" s="18">
-        <v>1</v>
-      </c>
-      <c r="V37" s="16"/>
-      <c r="W37" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="str">
+      <c r="T37" s="15">
+        <v>1</v>
+      </c>
+      <c r="U37" s="15">
+        <v>1</v>
+      </c>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="str">
         <v>03_14_1</v>
       </c>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="15">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="22" t="s">
+      <c r="I38" s="19">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="20">
         <v>5.93</v>
       </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18">
-        <v>0</v>
-      </c>
-      <c r="O38" s="18" t="s">
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+      <c r="O38" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="15">
         <v>1.41</v>
       </c>
-      <c r="Q38" s="18">
-        <v>1</v>
-      </c>
-      <c r="R38" s="18">
-        <v>1</v>
-      </c>
-      <c r="S38" s="18">
+      <c r="Q38" s="15">
+        <v>1</v>
+      </c>
+      <c r="R38" s="15">
+        <v>1</v>
+      </c>
+      <c r="S38" s="15">
         <v>0.22</v>
       </c>
-      <c r="T38" s="18">
-        <v>1</v>
-      </c>
-      <c r="U38" s="18">
-        <v>1</v>
-      </c>
-      <c r="V38" s="16"/>
-      <c r="W38" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="str">
+      <c r="T38" s="15">
+        <v>1</v>
+      </c>
+      <c r="U38" s="15">
+        <v>1</v>
+      </c>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="str">
         <v>03_14_2</v>
       </c>
-      <c r="B39" s="18">
-        <v>1</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="15">
+        <v>1</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="22" t="s">
+      <c r="I39" s="19">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="20">
         <v>5.66</v>
       </c>
-      <c r="L39" s="18">
-        <v>0</v>
-      </c>
-      <c r="M39" s="18">
-        <v>0</v>
-      </c>
-      <c r="N39" s="18">
-        <v>0</v>
-      </c>
-      <c r="O39" s="18" t="s">
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="18">
+      <c r="P39" s="15">
         <v>1.38</v>
       </c>
-      <c r="Q39" s="18">
-        <v>1</v>
-      </c>
-      <c r="R39" s="18">
-        <v>1</v>
-      </c>
-      <c r="S39" s="18">
+      <c r="Q39" s="15">
+        <v>1</v>
+      </c>
+      <c r="R39" s="15">
+        <v>1</v>
+      </c>
+      <c r="S39" s="15">
         <v>0.27</v>
       </c>
-      <c r="T39" s="18">
-        <v>1</v>
-      </c>
-      <c r="U39" s="18">
-        <v>1</v>
-      </c>
-      <c r="V39" s="16"/>
-      <c r="W39" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="str">
+      <c r="T39" s="15">
+        <v>1</v>
+      </c>
+      <c r="U39" s="15">
+        <v>1</v>
+      </c>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+      <c r="X39" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
         <v>03_14_3</v>
       </c>
-      <c r="B40" s="18">
-        <v>1</v>
-      </c>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="15">
+        <v>1</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="22">
-        <v>0</v>
-      </c>
-      <c r="J40" s="22" t="s">
+      <c r="I40" s="19">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="20">
         <v>5.15</v>
       </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="18">
-        <v>0</v>
-      </c>
-      <c r="N40" s="18">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18" t="s">
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+      <c r="O40" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q40" s="18">
-        <v>1</v>
-      </c>
-      <c r="R40" s="18">
-        <v>1</v>
-      </c>
-      <c r="S40" s="18">
+      <c r="Q40" s="15">
+        <v>1</v>
+      </c>
+      <c r="R40" s="15">
+        <v>1</v>
+      </c>
+      <c r="S40" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T40" s="18">
-        <v>1</v>
-      </c>
-      <c r="U40" s="18">
-        <v>1</v>
-      </c>
-      <c r="V40" s="16"/>
-      <c r="W40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="str">
+      <c r="T40" s="15">
+        <v>1</v>
+      </c>
+      <c r="U40" s="15">
+        <v>1</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15">
+        <v>0</v>
+      </c>
+      <c r="X40" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
         <v>03_13_1</v>
       </c>
-      <c r="B41" s="18">
-        <v>1</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="22">
-        <v>0</v>
-      </c>
-      <c r="J41" s="22" t="s">
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="20">
         <v>5.93</v>
       </c>
-      <c r="L41" s="18">
-        <v>0</v>
-      </c>
-      <c r="M41" s="18">
-        <v>0</v>
-      </c>
-      <c r="N41" s="18">
-        <v>0</v>
-      </c>
-      <c r="O41" s="18" t="s">
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P41" s="18">
+      <c r="P41" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q41" s="18">
-        <v>1</v>
-      </c>
-      <c r="R41" s="18">
-        <v>1</v>
-      </c>
-      <c r="S41" s="18">
+      <c r="Q41" s="15">
+        <v>1</v>
+      </c>
+      <c r="R41" s="15">
+        <v>1</v>
+      </c>
+      <c r="S41" s="15">
         <v>0.2</v>
       </c>
-      <c r="T41" s="18">
-        <v>1</v>
-      </c>
-      <c r="U41" s="18">
-        <v>1</v>
-      </c>
-      <c r="V41" s="16">
-        <v>1</v>
-      </c>
-      <c r="W41" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="str">
+      <c r="T41" s="15">
+        <v>1</v>
+      </c>
+      <c r="U41" s="15">
+        <v>1</v>
+      </c>
+      <c r="V41" s="15">
+        <v>1</v>
+      </c>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+      <c r="X41" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
         <v>03_13_2</v>
       </c>
-      <c r="B42" s="18">
-        <v>1</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="15">
+        <v>1</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="22">
-        <v>0</v>
-      </c>
-      <c r="J42" s="22" t="s">
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="20">
         <v>5.22</v>
       </c>
-      <c r="L42" s="18">
-        <v>0</v>
-      </c>
-      <c r="M42" s="18">
-        <v>0</v>
-      </c>
-      <c r="N42" s="18">
-        <v>0</v>
-      </c>
-      <c r="O42" s="18" t="s">
+      <c r="L42" s="15">
+        <v>0</v>
+      </c>
+      <c r="M42" s="15">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0</v>
+      </c>
+      <c r="O42" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="15">
         <v>1.37</v>
       </c>
-      <c r="Q42" s="18">
-        <v>1</v>
-      </c>
-      <c r="R42" s="18">
-        <v>1</v>
-      </c>
-      <c r="S42" s="18">
+      <c r="Q42" s="15">
+        <v>1</v>
+      </c>
+      <c r="R42" s="15">
+        <v>1</v>
+      </c>
+      <c r="S42" s="15">
         <v>0.2</v>
       </c>
-      <c r="T42" s="18">
-        <v>1</v>
-      </c>
-      <c r="U42" s="18">
-        <v>1</v>
-      </c>
-      <c r="V42" s="16">
-        <v>1</v>
-      </c>
-      <c r="W42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="str">
+      <c r="T42" s="15">
+        <v>1</v>
+      </c>
+      <c r="U42" s="15">
+        <v>1</v>
+      </c>
+      <c r="V42" s="15">
+        <v>1</v>
+      </c>
+      <c r="W42" s="15">
+        <v>0</v>
+      </c>
+      <c r="X42" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="str">
         <v>03_13_3</v>
       </c>
-      <c r="B43" s="18">
-        <v>1</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="20">
         <v>5.92</v>
       </c>
-      <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="18">
-        <v>0</v>
-      </c>
-      <c r="N43" s="18">
-        <v>0</v>
-      </c>
-      <c r="O43" s="18" t="s">
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="15">
         <v>1.35</v>
       </c>
-      <c r="Q43" s="18">
-        <v>1</v>
-      </c>
-      <c r="R43" s="18">
-        <v>1</v>
-      </c>
-      <c r="S43" s="18">
+      <c r="Q43" s="15">
+        <v>1</v>
+      </c>
+      <c r="R43" s="15">
+        <v>1</v>
+      </c>
+      <c r="S43" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T43" s="18">
-        <v>1</v>
-      </c>
-      <c r="U43" s="18">
-        <v>1</v>
-      </c>
-      <c r="V43" s="16">
-        <v>1</v>
-      </c>
-      <c r="W43" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="str">
+      <c r="T43" s="15">
+        <v>1</v>
+      </c>
+      <c r="U43" s="15">
+        <v>1</v>
+      </c>
+      <c r="V43" s="15">
+        <v>1</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="str">
         <v>03_15_1</v>
       </c>
-      <c r="B44" s="18">
-        <v>1</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="15">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="22">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22" t="s">
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="20">
         <v>6.18</v>
       </c>
-      <c r="L44" s="18">
-        <v>0</v>
-      </c>
-      <c r="M44" s="18">
-        <v>0</v>
-      </c>
-      <c r="N44" s="18">
-        <v>0</v>
-      </c>
-      <c r="O44" s="18" t="s">
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P44" s="15">
         <v>1.35</v>
       </c>
-      <c r="Q44" s="18">
-        <v>1</v>
-      </c>
-      <c r="R44" s="18">
-        <v>1</v>
-      </c>
-      <c r="S44" s="18">
+      <c r="Q44" s="15">
+        <v>1</v>
+      </c>
+      <c r="R44" s="15">
+        <v>1</v>
+      </c>
+      <c r="S44" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T44" s="18">
-        <v>1</v>
-      </c>
-      <c r="U44" s="18">
-        <v>1</v>
-      </c>
-      <c r="V44" s="16">
-        <v>1</v>
-      </c>
-      <c r="W44" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="str">
+      <c r="T44" s="15">
+        <v>1</v>
+      </c>
+      <c r="U44" s="15">
+        <v>1</v>
+      </c>
+      <c r="V44" s="15">
+        <v>1</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
         <v>03_15_2</v>
       </c>
-      <c r="B45" s="18">
-        <v>1</v>
-      </c>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="22">
-        <v>0</v>
-      </c>
-      <c r="J45" s="22" t="s">
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="20">
         <v>5.21</v>
       </c>
-      <c r="L45" s="18">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18">
-        <v>0</v>
-      </c>
-      <c r="N45" s="18">
-        <v>0</v>
-      </c>
-      <c r="O45" s="18" t="s">
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P45" s="18">
+      <c r="P45" s="15">
         <v>1.37</v>
       </c>
-      <c r="Q45" s="18">
-        <v>1</v>
-      </c>
-      <c r="R45" s="18">
-        <v>1</v>
-      </c>
-      <c r="S45" s="18">
+      <c r="Q45" s="15">
+        <v>1</v>
+      </c>
+      <c r="R45" s="15">
+        <v>1</v>
+      </c>
+      <c r="S45" s="15">
         <v>0.26</v>
       </c>
-      <c r="T45" s="18">
-        <v>1</v>
-      </c>
-      <c r="U45" s="18">
-        <v>1</v>
-      </c>
-      <c r="V45" s="16">
-        <v>1</v>
-      </c>
-      <c r="W45" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="str">
+      <c r="T45" s="15">
+        <v>1</v>
+      </c>
+      <c r="U45" s="15">
+        <v>1</v>
+      </c>
+      <c r="V45" s="15">
+        <v>1</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="str">
         <v>03_15_3</v>
       </c>
-      <c r="B46" s="18">
-        <v>1</v>
-      </c>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="15">
+        <v>1</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="22">
-        <v>0</v>
-      </c>
-      <c r="J46" s="22" t="s">
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="20">
         <v>5.58</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="15">
         <v>5.65</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M46" s="15">
         <v>5.46</v>
       </c>
-      <c r="N46" s="18">
-        <v>0</v>
-      </c>
-      <c r="O46" s="18" t="s">
+      <c r="N46" s="15">
+        <v>0</v>
+      </c>
+      <c r="O46" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P46" s="18">
+      <c r="P46" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q46" s="18">
-        <v>1</v>
-      </c>
-      <c r="R46" s="18">
-        <v>1</v>
-      </c>
-      <c r="S46" s="18">
+      <c r="Q46" s="15">
+        <v>1</v>
+      </c>
+      <c r="R46" s="15">
+        <v>1</v>
+      </c>
+      <c r="S46" s="15">
         <v>0.22</v>
       </c>
-      <c r="T46" s="18">
-        <v>1</v>
-      </c>
-      <c r="U46" s="18">
-        <v>1</v>
-      </c>
-      <c r="V46" s="16">
-        <v>1</v>
-      </c>
-      <c r="W46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="str">
+      <c r="T46" s="15">
+        <v>1</v>
+      </c>
+      <c r="U46" s="15">
+        <v>1</v>
+      </c>
+      <c r="V46" s="15">
+        <v>1</v>
+      </c>
+      <c r="W46" s="15">
+        <v>0</v>
+      </c>
+      <c r="X46" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="str">
         <v>03_11_1</v>
       </c>
-      <c r="B47" s="18">
-        <v>1</v>
-      </c>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="15">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="22">
-        <v>0</v>
-      </c>
-      <c r="J47" s="22" t="s">
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="20">
         <v>5.58</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="15">
         <f t="array" ref="L47:M49">0</f>
         <v>0</v>
       </c>
-      <c r="M47" s="18">
-        <v>0</v>
-      </c>
-      <c r="N47" s="18">
-        <v>0</v>
-      </c>
-      <c r="O47" s="18" t="s">
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P47" s="18">
+      <c r="P47" s="15">
         <v>1.44</v>
       </c>
-      <c r="Q47" s="18">
-        <v>0</v>
-      </c>
-      <c r="R47" s="18">
-        <v>0</v>
-      </c>
-      <c r="S47" s="18">
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
         <v>-1</v>
       </c>
-      <c r="T47" s="18">
-        <v>1</v>
-      </c>
-      <c r="U47" s="18">
-        <v>0</v>
-      </c>
-      <c r="V47" s="16"/>
-      <c r="W47" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="str">
+      <c r="T47" s="15">
+        <v>1</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+      <c r="X47" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="str">
         <v>03_11_2</v>
       </c>
-      <c r="B48" s="18">
-        <v>1</v>
-      </c>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="15">
+        <v>1</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="22">
-        <v>0</v>
-      </c>
-      <c r="J48" s="22" t="s">
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="20">
         <v>5.75</v>
       </c>
-      <c r="L48" s="18">
-        <v>0</v>
-      </c>
-      <c r="M48" s="18">
-        <v>0</v>
-      </c>
-      <c r="N48" s="18">
-        <v>0</v>
-      </c>
-      <c r="O48" s="18" t="s">
+      <c r="L48" s="15">
+        <v>0</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15">
+        <v>0</v>
+      </c>
+      <c r="O48" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P48" s="18">
+      <c r="P48" s="15">
         <v>1.37</v>
       </c>
-      <c r="Q48" s="18">
-        <v>1</v>
-      </c>
-      <c r="R48" s="18">
-        <v>1</v>
-      </c>
-      <c r="S48" s="18">
+      <c r="Q48" s="15">
+        <v>1</v>
+      </c>
+      <c r="R48" s="15">
+        <v>1</v>
+      </c>
+      <c r="S48" s="15">
         <v>0.3</v>
       </c>
-      <c r="T48" s="18">
-        <v>1</v>
-      </c>
-      <c r="U48" s="18">
-        <v>1</v>
-      </c>
-      <c r="V48" s="16"/>
-      <c r="W48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="str">
+      <c r="T48" s="15">
+        <v>1</v>
+      </c>
+      <c r="U48" s="15">
+        <v>1</v>
+      </c>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15">
+        <v>0</v>
+      </c>
+      <c r="X48" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="str">
         <v>03_11_3</v>
       </c>
-      <c r="B49" s="18">
-        <v>1</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="15">
+        <v>1</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="22">
-        <v>0</v>
-      </c>
-      <c r="J49" s="22" t="s">
+      <c r="I49" s="19">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="20">
         <v>6.03</v>
       </c>
-      <c r="L49" s="18">
-        <v>0</v>
-      </c>
-      <c r="M49" s="18">
-        <v>0</v>
-      </c>
-      <c r="N49" s="18">
-        <v>0</v>
-      </c>
-      <c r="O49" s="18" t="s">
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P49" s="18">
+      <c r="P49" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q49" s="18">
-        <v>1</v>
-      </c>
-      <c r="R49" s="18">
-        <v>1</v>
-      </c>
-      <c r="S49" s="18">
+      <c r="Q49" s="15">
+        <v>1</v>
+      </c>
+      <c r="R49" s="15">
+        <v>1</v>
+      </c>
+      <c r="S49" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T49" s="18">
-        <v>1</v>
-      </c>
-      <c r="U49" s="18">
-        <v>1</v>
-      </c>
-      <c r="V49" s="16"/>
-      <c r="W49" s="18">
-        <v>0</v>
+      <c r="T49" s="15">
+        <v>1</v>
+      </c>
+      <c r="U49" s="15">
+        <v>1</v>
+      </c>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:W1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:W1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>VariableList</formula1>
     </dataValidation>
   </dataValidations>
@@ -6802,7 +6967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/99_Other/Dataset/Val_2_samples_dataset.xlsx
+++ b/99_Other/Dataset/Val_2_samples_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\lzm-validation\99_Other\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA8EB7-E232-4EF0-9FA9-26B93A8D22FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AAECCC-F7B0-4930-B737-030A0E7B1B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="Лист1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FinalMelting!$A$1:$W$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FinalMelting!$A$1:$X$1</definedName>
     <definedName name="Val2_samples_id">Dict!$B$2:$B$49</definedName>
     <definedName name="VariableList">Dict!$A$2:$A$34</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -589,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,17 +647,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3496,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,7 +3577,7 @@
       <c r="W1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="29" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4453,72 +4450,72 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="str">
+      <c r="A14" s="25" t="str">
         <v>02_8_1</v>
       </c>
-      <c r="B14" s="26">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="25">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>5.45</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <f t="array" ref="L14:M17">0</f>
         <v>0</v>
       </c>
-      <c r="M14" s="26">
-        <v>0</v>
-      </c>
-      <c r="N14" s="26">
-        <v>0</v>
-      </c>
-      <c r="O14" s="26" t="s">
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <v>1.25</v>
       </c>
-      <c r="Q14" s="26">
-        <v>1</v>
-      </c>
-      <c r="R14" s="26">
-        <v>1</v>
-      </c>
-      <c r="S14" s="26">
+      <c r="Q14" s="25">
+        <v>1</v>
+      </c>
+      <c r="R14" s="25">
+        <v>1</v>
+      </c>
+      <c r="S14" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T14" s="26">
-        <v>1</v>
-      </c>
-      <c r="U14" s="26">
-        <v>1</v>
-      </c>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26">
+      <c r="T14" s="25">
+        <v>1</v>
+      </c>
+      <c r="U14" s="25">
+        <v>1</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25">
         <v>1</v>
       </c>
       <c r="X14" s="15">
@@ -4526,71 +4523,71 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="str">
+      <c r="A15" s="25" t="str">
         <v>02_8_2</v>
       </c>
-      <c r="B15" s="26">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="25">
+        <v>1</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="27">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27" t="s">
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>5.46</v>
       </c>
-      <c r="L15" s="26">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26">
-        <v>0</v>
-      </c>
-      <c r="N15" s="26">
-        <v>0</v>
-      </c>
-      <c r="O15" s="26" t="s">
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <v>1.21</v>
       </c>
-      <c r="Q15" s="26">
-        <v>1</v>
-      </c>
-      <c r="R15" s="26">
-        <v>1</v>
-      </c>
-      <c r="S15" s="26">
+      <c r="Q15" s="25">
+        <v>1</v>
+      </c>
+      <c r="R15" s="25">
+        <v>1</v>
+      </c>
+      <c r="S15" s="25">
         <v>0.25</v>
       </c>
-      <c r="T15" s="26">
-        <v>1</v>
-      </c>
-      <c r="U15" s="26">
-        <v>1</v>
-      </c>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26">
+      <c r="T15" s="25">
+        <v>1</v>
+      </c>
+      <c r="U15" s="25">
+        <v>1</v>
+      </c>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25">
         <v>1</v>
       </c>
       <c r="X15" s="15">
@@ -6108,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="15">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -6400,71 +6397,71 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="str">
+      <c r="A41" s="25" t="str">
         <v>03_13_1</v>
       </c>
-      <c r="B41" s="26">
-        <v>1</v>
-      </c>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="25">
+        <v>1</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="27">
-        <v>0</v>
-      </c>
-      <c r="J41" s="27" t="s">
+      <c r="I41" s="26">
+        <v>0</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="27">
         <v>5.93</v>
       </c>
-      <c r="L41" s="26">
-        <v>0</v>
-      </c>
-      <c r="M41" s="26">
-        <v>0</v>
-      </c>
-      <c r="N41" s="26">
-        <v>0</v>
-      </c>
-      <c r="O41" s="26" t="s">
+      <c r="L41" s="25">
+        <v>0</v>
+      </c>
+      <c r="M41" s="25">
+        <v>0</v>
+      </c>
+      <c r="N41" s="25">
+        <v>0</v>
+      </c>
+      <c r="O41" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="25">
         <v>1.4</v>
       </c>
-      <c r="Q41" s="26">
-        <v>1</v>
-      </c>
-      <c r="R41" s="26">
-        <v>1</v>
-      </c>
-      <c r="S41" s="26">
+      <c r="Q41" s="25">
+        <v>1</v>
+      </c>
+      <c r="R41" s="25">
+        <v>1</v>
+      </c>
+      <c r="S41" s="25">
         <v>0.2</v>
       </c>
-      <c r="T41" s="26">
-        <v>1</v>
-      </c>
-      <c r="U41" s="26">
-        <v>1</v>
-      </c>
-      <c r="V41" s="29"/>
-      <c r="W41" s="26">
+      <c r="T41" s="25">
+        <v>1</v>
+      </c>
+      <c r="U41" s="25">
+        <v>1</v>
+      </c>
+      <c r="V41" s="28"/>
+      <c r="W41" s="25">
         <v>1</v>
       </c>
       <c r="X41" s="15">
@@ -6472,71 +6469,71 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="str">
+      <c r="A42" s="25" t="str">
         <v>03_13_2</v>
       </c>
-      <c r="B42" s="26">
-        <v>1</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="25">
+        <v>1</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="27">
-        <v>0</v>
-      </c>
-      <c r="J42" s="27" t="s">
+      <c r="I42" s="26">
+        <v>0</v>
+      </c>
+      <c r="J42" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="27">
         <v>5.22</v>
       </c>
-      <c r="L42" s="26">
-        <v>0</v>
-      </c>
-      <c r="M42" s="26">
-        <v>0</v>
-      </c>
-      <c r="N42" s="26">
-        <v>0</v>
-      </c>
-      <c r="O42" s="26" t="s">
+      <c r="L42" s="25">
+        <v>0</v>
+      </c>
+      <c r="M42" s="25">
+        <v>0</v>
+      </c>
+      <c r="N42" s="25">
+        <v>0</v>
+      </c>
+      <c r="O42" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="25">
         <v>1.37</v>
       </c>
-      <c r="Q42" s="26">
-        <v>1</v>
-      </c>
-      <c r="R42" s="26">
-        <v>1</v>
-      </c>
-      <c r="S42" s="26">
+      <c r="Q42" s="25">
+        <v>1</v>
+      </c>
+      <c r="R42" s="25">
+        <v>1</v>
+      </c>
+      <c r="S42" s="25">
         <v>0.2</v>
       </c>
-      <c r="T42" s="26">
-        <v>1</v>
-      </c>
-      <c r="U42" s="26">
-        <v>1</v>
-      </c>
-      <c r="V42" s="29"/>
-      <c r="W42" s="26">
+      <c r="T42" s="25">
+        <v>1</v>
+      </c>
+      <c r="U42" s="25">
+        <v>1</v>
+      </c>
+      <c r="V42" s="28"/>
+      <c r="W42" s="25">
         <v>1</v>
       </c>
       <c r="X42" s="15">
@@ -6544,71 +6541,71 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="str">
+      <c r="A43" s="25" t="str">
         <v>03_13_3</v>
       </c>
-      <c r="B43" s="26">
-        <v>1</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="25">
+        <v>1</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="27">
-        <v>0</v>
-      </c>
-      <c r="J43" s="27" t="s">
+      <c r="I43" s="26">
+        <v>0</v>
+      </c>
+      <c r="J43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="27">
         <v>5.92</v>
       </c>
-      <c r="L43" s="26">
-        <v>0</v>
-      </c>
-      <c r="M43" s="26">
-        <v>0</v>
-      </c>
-      <c r="N43" s="26">
-        <v>0</v>
-      </c>
-      <c r="O43" s="26" t="s">
+      <c r="L43" s="25">
+        <v>0</v>
+      </c>
+      <c r="M43" s="25">
+        <v>0</v>
+      </c>
+      <c r="N43" s="25">
+        <v>0</v>
+      </c>
+      <c r="O43" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P43" s="26">
+      <c r="P43" s="25">
         <v>1.35</v>
       </c>
-      <c r="Q43" s="26">
-        <v>1</v>
-      </c>
-      <c r="R43" s="26">
-        <v>1</v>
-      </c>
-      <c r="S43" s="26">
+      <c r="Q43" s="25">
+        <v>1</v>
+      </c>
+      <c r="R43" s="25">
+        <v>1</v>
+      </c>
+      <c r="S43" s="25">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T43" s="26">
-        <v>1</v>
-      </c>
-      <c r="U43" s="26">
-        <v>1</v>
-      </c>
-      <c r="V43" s="29"/>
-      <c r="W43" s="26">
+      <c r="T43" s="25">
+        <v>1</v>
+      </c>
+      <c r="U43" s="25">
+        <v>1</v>
+      </c>
+      <c r="V43" s="28"/>
+      <c r="W43" s="25">
         <v>1</v>
       </c>
       <c r="X43" s="15">
@@ -6616,71 +6613,71 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="str">
+      <c r="A44" s="25" t="str">
         <v>03_15_1</v>
       </c>
-      <c r="B44" s="26">
-        <v>1</v>
-      </c>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="25">
+        <v>1</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="27">
-        <v>0</v>
-      </c>
-      <c r="J44" s="27" t="s">
+      <c r="I44" s="26">
+        <v>0</v>
+      </c>
+      <c r="J44" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="27">
         <v>6.18</v>
       </c>
-      <c r="L44" s="26">
-        <v>0</v>
-      </c>
-      <c r="M44" s="26">
-        <v>0</v>
-      </c>
-      <c r="N44" s="26">
-        <v>0</v>
-      </c>
-      <c r="O44" s="26" t="s">
+      <c r="L44" s="25">
+        <v>0</v>
+      </c>
+      <c r="M44" s="25">
+        <v>0</v>
+      </c>
+      <c r="N44" s="25">
+        <v>0</v>
+      </c>
+      <c r="O44" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P44" s="26">
+      <c r="P44" s="25">
         <v>1.35</v>
       </c>
-      <c r="Q44" s="26">
-        <v>1</v>
-      </c>
-      <c r="R44" s="26">
-        <v>1</v>
-      </c>
-      <c r="S44" s="26">
+      <c r="Q44" s="25">
+        <v>1</v>
+      </c>
+      <c r="R44" s="25">
+        <v>1</v>
+      </c>
+      <c r="S44" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T44" s="26">
-        <v>1</v>
-      </c>
-      <c r="U44" s="26">
-        <v>1</v>
-      </c>
-      <c r="V44" s="29"/>
-      <c r="W44" s="26">
+      <c r="T44" s="25">
+        <v>1</v>
+      </c>
+      <c r="U44" s="25">
+        <v>1</v>
+      </c>
+      <c r="V44" s="28"/>
+      <c r="W44" s="25">
         <v>1</v>
       </c>
       <c r="X44" s="15">
@@ -6688,71 +6685,71 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="str">
+      <c r="A45" s="25" t="str">
         <v>03_15_2</v>
       </c>
-      <c r="B45" s="26">
-        <v>1</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="25">
+        <v>1</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="27">
-        <v>0</v>
-      </c>
-      <c r="J45" s="27" t="s">
+      <c r="I45" s="26">
+        <v>0</v>
+      </c>
+      <c r="J45" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="27">
         <v>5.21</v>
       </c>
-      <c r="L45" s="26">
-        <v>0</v>
-      </c>
-      <c r="M45" s="26">
-        <v>0</v>
-      </c>
-      <c r="N45" s="26">
-        <v>0</v>
-      </c>
-      <c r="O45" s="26" t="s">
+      <c r="L45" s="25">
+        <v>0</v>
+      </c>
+      <c r="M45" s="25">
+        <v>0</v>
+      </c>
+      <c r="N45" s="25">
+        <v>0</v>
+      </c>
+      <c r="O45" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P45" s="25">
         <v>1.37</v>
       </c>
-      <c r="Q45" s="26">
-        <v>1</v>
-      </c>
-      <c r="R45" s="26">
-        <v>1</v>
-      </c>
-      <c r="S45" s="26">
+      <c r="Q45" s="25">
+        <v>1</v>
+      </c>
+      <c r="R45" s="25">
+        <v>1</v>
+      </c>
+      <c r="S45" s="25">
         <v>0.26</v>
       </c>
-      <c r="T45" s="26">
-        <v>1</v>
-      </c>
-      <c r="U45" s="26">
-        <v>1</v>
-      </c>
-      <c r="V45" s="29"/>
-      <c r="W45" s="26">
+      <c r="T45" s="25">
+        <v>1</v>
+      </c>
+      <c r="U45" s="25">
+        <v>1</v>
+      </c>
+      <c r="V45" s="28"/>
+      <c r="W45" s="25">
         <v>1</v>
       </c>
       <c r="X45" s="15">
@@ -6760,71 +6757,71 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="str">
+      <c r="A46" s="25" t="str">
         <v>03_15_3</v>
       </c>
-      <c r="B46" s="26">
-        <v>1</v>
-      </c>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="25">
+        <v>1</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="27">
-        <v>0</v>
-      </c>
-      <c r="J46" s="27" t="s">
+      <c r="I46" s="26">
+        <v>0</v>
+      </c>
+      <c r="J46" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="27">
         <v>5.58</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="25">
         <v>5.65</v>
       </c>
-      <c r="M46" s="26">
+      <c r="M46" s="25">
         <v>5.46</v>
       </c>
-      <c r="N46" s="26">
-        <v>0</v>
-      </c>
-      <c r="O46" s="26" t="s">
+      <c r="N46" s="25">
+        <v>0</v>
+      </c>
+      <c r="O46" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P46" s="26">
+      <c r="P46" s="25">
         <v>1.4</v>
       </c>
-      <c r="Q46" s="26">
-        <v>1</v>
-      </c>
-      <c r="R46" s="26">
-        <v>1</v>
-      </c>
-      <c r="S46" s="26">
+      <c r="Q46" s="25">
+        <v>1</v>
+      </c>
+      <c r="R46" s="25">
+        <v>1</v>
+      </c>
+      <c r="S46" s="25">
         <v>0.22</v>
       </c>
-      <c r="T46" s="26">
-        <v>1</v>
-      </c>
-      <c r="U46" s="26">
-        <v>1</v>
-      </c>
-      <c r="V46" s="29"/>
-      <c r="W46" s="26">
+      <c r="T46" s="25">
+        <v>1</v>
+      </c>
+      <c r="U46" s="25">
+        <v>1</v>
+      </c>
+      <c r="V46" s="28"/>
+      <c r="W46" s="25">
         <v>1</v>
       </c>
       <c r="X46" s="15">
@@ -7049,7 +7046,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W49" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:W1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>VariableList</formula1>
@@ -9164,300 +9161,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>9.75</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>0.17</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>0.48</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>1.2</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>5.95</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1.93</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>1.54</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="23">
-        <v>1</v>
-      </c>
-      <c r="L22" s="23" t="s">
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="23">
-        <v>1</v>
-      </c>
-      <c r="N22" s="23" t="s">
+      <c r="M22" s="22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O22" s="23">
-        <v>1</v>
-      </c>
-      <c r="P22" s="23" t="s">
+      <c r="O22" s="22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q22" s="23">
-        <v>1</v>
-      </c>
-      <c r="R22" s="23">
-        <v>0</v>
-      </c>
-      <c r="S22" s="23" t="s">
+      <c r="Q22" s="22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="23">
-        <v>1</v>
-      </c>
-      <c r="U22" s="23">
+      <c r="T22" s="22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="22">
         <v>5.45</v>
       </c>
-      <c r="V22" s="23">
-        <v>0</v>
-      </c>
-      <c r="W22" s="23">
-        <v>0</v>
-      </c>
-      <c r="X22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="23" t="s">
+      <c r="V22" s="22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z22" s="23">
+      <c r="Z22" s="22">
         <v>1.25</v>
       </c>
-      <c r="AA22" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="23">
+      <c r="AA22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD22" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="AD22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>9.76</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>0.4</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>0.34</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1.18</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>5.89</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>2.04</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>1.6</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="23" t="s">
+      <c r="K23" s="22">
+        <v>1</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="23">
-        <v>1</v>
-      </c>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="22">
+        <v>1</v>
+      </c>
+      <c r="N23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="23">
-        <v>1</v>
-      </c>
-      <c r="P23" s="23" t="s">
+      <c r="O23" s="22">
+        <v>1</v>
+      </c>
+      <c r="P23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q23" s="23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="23">
-        <v>0</v>
-      </c>
-      <c r="S23" s="23" t="s">
+      <c r="Q23" s="22">
+        <v>1</v>
+      </c>
+      <c r="R23" s="22">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="T23" s="23">
-        <v>1</v>
-      </c>
-      <c r="U23" s="23">
+      <c r="T23" s="22">
+        <v>1</v>
+      </c>
+      <c r="U23" s="22">
         <v>5.46</v>
       </c>
-      <c r="V23" s="23">
-        <v>0</v>
-      </c>
-      <c r="W23" s="23">
-        <v>0</v>
-      </c>
-      <c r="X23" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="23" t="s">
+      <c r="V23" s="22">
+        <v>0</v>
+      </c>
+      <c r="W23" s="22">
+        <v>0</v>
+      </c>
+      <c r="X23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z23" s="23">
+      <c r="Z23" s="22">
         <v>1.21</v>
       </c>
-      <c r="AA23" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="23" t="s">
+      <c r="AA23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AD23" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="AD23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>9.7799999999999994</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>0.37</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>0.37</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>1.2</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>5.73</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>2.17</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>1.44</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="23">
-        <v>1</v>
-      </c>
-      <c r="L24" s="23" t="s">
+      <c r="K24" s="22">
+        <v>1</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="23">
-        <v>1</v>
-      </c>
-      <c r="N24" s="23" t="s">
+      <c r="M24" s="22">
+        <v>1</v>
+      </c>
+      <c r="N24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="23">
-        <v>1</v>
-      </c>
-      <c r="P24" s="23" t="s">
+      <c r="O24" s="22">
+        <v>1</v>
+      </c>
+      <c r="P24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q24" s="23">
-        <v>1</v>
-      </c>
-      <c r="R24" s="23">
-        <v>0</v>
-      </c>
-      <c r="S24" s="23" t="s">
+      <c r="Q24" s="22">
+        <v>1</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="T24" s="23">
-        <v>1</v>
-      </c>
-      <c r="U24" s="23">
+      <c r="T24" s="22">
+        <v>1</v>
+      </c>
+      <c r="U24" s="22">
         <v>5.09</v>
       </c>
-      <c r="V24" s="23">
-        <v>0</v>
-      </c>
-      <c r="W24" s="23">
-        <v>0</v>
-      </c>
-      <c r="X24" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="23" t="s">
+      <c r="V24" s="22">
+        <v>0</v>
+      </c>
+      <c r="W24" s="22">
+        <v>0</v>
+      </c>
+      <c r="X24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z24" s="23">
+      <c r="Z24" s="22">
         <v>1.22</v>
       </c>
-      <c r="AA24" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="23">
+      <c r="AA24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="22">
         <v>0.24</v>
       </c>
-      <c r="AD24" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23">
+      <c r="AD24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22">
         <v>1</v>
       </c>
     </row>
@@ -10352,300 +10349,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>11.56</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>0.3</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>0.47</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>1.4</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>6.19</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>2.77</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>2.16</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="23" t="s">
+      <c r="K34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="23" t="s">
+      <c r="M34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O34" s="23">
-        <v>1</v>
-      </c>
-      <c r="P34" s="23" t="s">
+      <c r="O34" s="22">
+        <v>1</v>
+      </c>
+      <c r="P34" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q34" s="23">
-        <v>1</v>
-      </c>
-      <c r="R34" s="23">
-        <v>0</v>
-      </c>
-      <c r="S34" s="23" t="s">
+      <c r="Q34" s="22">
+        <v>1</v>
+      </c>
+      <c r="R34" s="22">
+        <v>0</v>
+      </c>
+      <c r="S34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="23">
+      <c r="T34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="22">
         <v>5.93</v>
       </c>
-      <c r="V34" s="23">
-        <v>0</v>
-      </c>
-      <c r="W34" s="23">
-        <v>0</v>
-      </c>
-      <c r="X34" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="23" t="s">
+      <c r="V34" s="22">
+        <v>0</v>
+      </c>
+      <c r="W34" s="22">
+        <v>0</v>
+      </c>
+      <c r="X34" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z34" s="23">
+      <c r="Z34" s="22">
         <v>1.4</v>
       </c>
-      <c r="AA34" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="23">
+      <c r="AA34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="22">
         <v>0.2</v>
       </c>
-      <c r="AD34" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="AD34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>11.61</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>0.36</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>0.49</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>1.4</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>7.01</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>1.86</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>2.17</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="23" t="s">
+      <c r="K35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="23" t="s">
+      <c r="M35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="23">
-        <v>1</v>
-      </c>
-      <c r="P35" s="23" t="s">
+      <c r="O35" s="22">
+        <v>1</v>
+      </c>
+      <c r="P35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q35" s="23">
-        <v>1</v>
-      </c>
-      <c r="R35" s="23">
-        <v>0</v>
-      </c>
-      <c r="S35" s="23" t="s">
+      <c r="Q35" s="22">
+        <v>1</v>
+      </c>
+      <c r="R35" s="22">
+        <v>0</v>
+      </c>
+      <c r="S35" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U35" s="23">
+      <c r="T35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="22">
         <v>5.22</v>
       </c>
-      <c r="V35" s="23">
-        <v>0</v>
-      </c>
-      <c r="W35" s="23">
-        <v>0</v>
-      </c>
-      <c r="X35" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="23" t="s">
+      <c r="V35" s="22">
+        <v>0</v>
+      </c>
+      <c r="W35" s="22">
+        <v>0</v>
+      </c>
+      <c r="X35" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z35" s="23">
+      <c r="Z35" s="22">
         <v>1.37</v>
       </c>
-      <c r="AA35" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="23">
+      <c r="AA35" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="22">
         <v>0.2</v>
       </c>
-      <c r="AD35" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="AD35" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>11.6</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <v>0.31</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>0.46</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>1.4</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>6.24</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>2.38</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>2.39</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="23" t="s">
+      <c r="K36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="23" t="s">
+      <c r="M36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O36" s="23">
-        <v>1</v>
-      </c>
-      <c r="P36" s="23" t="s">
+      <c r="O36" s="22">
+        <v>1</v>
+      </c>
+      <c r="P36" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q36" s="23">
-        <v>1</v>
-      </c>
-      <c r="R36" s="23">
-        <v>0</v>
-      </c>
-      <c r="S36" s="23" t="s">
+      <c r="Q36" s="22">
+        <v>1</v>
+      </c>
+      <c r="R36" s="22">
+        <v>0</v>
+      </c>
+      <c r="S36" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U36" s="23">
+      <c r="T36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="22">
         <v>5.92</v>
       </c>
-      <c r="V36" s="23">
-        <v>0</v>
-      </c>
-      <c r="W36" s="23">
-        <v>0</v>
-      </c>
-      <c r="X36" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="23" t="s">
+      <c r="V36" s="22">
+        <v>0</v>
+      </c>
+      <c r="W36" s="22">
+        <v>0</v>
+      </c>
+      <c r="X36" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z36" s="23">
+      <c r="Z36" s="22">
         <v>1.35</v>
       </c>
-      <c r="AA36" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="23">
+      <c r="AA36" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD36" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23">
+      <c r="AD36" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22">
         <v>1</v>
       </c>
     </row>
@@ -10946,300 +10943,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>11.58</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>0.47</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>1.4</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>6.69</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>2.15</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>2.13</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="23" t="s">
+      <c r="K40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M40" s="23">
-        <v>1</v>
-      </c>
-      <c r="N40" s="23" t="s">
+      <c r="M40" s="22">
+        <v>1</v>
+      </c>
+      <c r="N40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O40" s="23">
-        <v>1</v>
-      </c>
-      <c r="P40" s="23" t="s">
+      <c r="O40" s="22">
+        <v>1</v>
+      </c>
+      <c r="P40" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="23">
-        <v>0</v>
-      </c>
-      <c r="S40" s="23" t="s">
+      <c r="Q40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="22">
+        <v>0</v>
+      </c>
+      <c r="S40" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U40" s="23">
+      <c r="T40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="22">
         <v>6.18</v>
       </c>
-      <c r="V40" s="23">
-        <v>0</v>
-      </c>
-      <c r="W40" s="23">
-        <v>0</v>
-      </c>
-      <c r="X40" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="23" t="s">
+      <c r="V40" s="22">
+        <v>0</v>
+      </c>
+      <c r="W40" s="22">
+        <v>0</v>
+      </c>
+      <c r="X40" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z40" s="23">
+      <c r="Z40" s="22">
         <v>1.35</v>
       </c>
-      <c r="AA40" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="23">
+      <c r="AA40" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD40" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="AD40" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>11.54</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>0.23</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>0.48</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>1.4</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>6.69</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>1.96</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>2.25</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="23" t="s">
+      <c r="K41" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M41" s="23">
-        <v>1</v>
-      </c>
-      <c r="N41" s="23" t="s">
+      <c r="M41" s="22">
+        <v>1</v>
+      </c>
+      <c r="N41" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O41" s="23">
-        <v>1</v>
-      </c>
-      <c r="P41" s="23" t="s">
+      <c r="O41" s="22">
+        <v>1</v>
+      </c>
+      <c r="P41" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Q41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R41" s="23">
-        <v>0</v>
-      </c>
-      <c r="S41" s="23" t="s">
+      <c r="Q41" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="22">
+        <v>0</v>
+      </c>
+      <c r="S41" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U41" s="23">
+      <c r="T41" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="22">
         <v>5.21</v>
       </c>
-      <c r="V41" s="23">
-        <v>0</v>
-      </c>
-      <c r="W41" s="23">
-        <v>0</v>
-      </c>
-      <c r="X41" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="23" t="s">
+      <c r="V41" s="22">
+        <v>0</v>
+      </c>
+      <c r="W41" s="22">
+        <v>0</v>
+      </c>
+      <c r="X41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z41" s="23">
+      <c r="Z41" s="22">
         <v>1.37</v>
       </c>
-      <c r="AA41" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="23">
+      <c r="AA41" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="22">
         <v>0.26</v>
       </c>
-      <c r="AD41" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="23"/>
-      <c r="AG41" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="AD41" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>11.57</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="22">
         <v>0.31</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>0.45</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>1.4</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>7.25</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>1.46</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L42" s="23" t="s">
+      <c r="K42" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="23">
-        <v>1</v>
-      </c>
-      <c r="N42" s="23" t="s">
+      <c r="M42" s="22">
+        <v>1</v>
+      </c>
+      <c r="N42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O42" s="23">
-        <v>1</v>
-      </c>
-      <c r="P42" s="23" t="s">
+      <c r="O42" s="22">
+        <v>1</v>
+      </c>
+      <c r="P42" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R42" s="23">
-        <v>0</v>
-      </c>
-      <c r="S42" s="23" t="s">
+      <c r="Q42" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="22">
+        <v>0</v>
+      </c>
+      <c r="S42" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U42" s="23">
+      <c r="T42" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="22">
         <v>5.58</v>
       </c>
-      <c r="V42" s="23">
+      <c r="V42" s="22">
         <v>5.65</v>
       </c>
-      <c r="W42" s="23">
+      <c r="W42" s="22">
         <v>5.46</v>
       </c>
-      <c r="X42" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="23" t="s">
+      <c r="X42" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z42" s="23">
+      <c r="Z42" s="22">
         <v>1.4</v>
       </c>
-      <c r="AA42" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="23">
+      <c r="AA42" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="22">
         <v>0.22</v>
       </c>
-      <c r="AD42" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="23"/>
-      <c r="AG42" s="23">
+      <c r="AD42" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22">
         <v>1</v>
       </c>
     </row>
@@ -11838,10 +11835,10 @@
       </c>
     </row>
     <row r="49" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="21" t="s">
         <v>101</v>
       </c>
       <c r="K49">
@@ -11866,7 +11863,7 @@
       </c>
     </row>
     <row r="50" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="21" t="s">
         <v>98</v>
       </c>
       <c r="K50">
@@ -11894,7 +11891,7 @@
       <c r="I51" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="21" t="s">
         <v>101</v>
       </c>
       <c r="K51">
@@ -11919,7 +11916,7 @@
       </c>
     </row>
     <row r="52" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="21" t="s">
         <v>98</v>
       </c>
       <c r="K52">

--- a/99_Other/Dataset/Val_2_samples_dataset.xlsx
+++ b/99_Other/Dataset/Val_2_samples_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\lzm-validation\99_Other\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AAECCC-F7B0-4930-B737-030A0E7B1B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A1217-F4AA-4047-A50B-85343459A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="05_InitialMelting" sheetId="1" r:id="rId3"/>
     <sheet name="FinalMelting" sheetId="4" r:id="rId4"/>
     <sheet name="PostValidationChecks" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FinalMelting!$A$1:$X$1</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="100">
   <si>
     <t>DUT ID</t>
   </si>
@@ -332,56 +331,6 @@
   </si>
   <si>
     <t>FMOP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">  0,145 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>гр/ms</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> 0,120 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>гр/ms</t>
-    </r>
-  </si>
-  <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>"03</t>
-  </si>
-  <si>
-    <t>'02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ыфап</t>
   </si>
   <si>
     <t>FMPR</t>
@@ -391,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,35 +392,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -585,11 +512,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,35 +573,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{BB6C8D8B-C869-4784-92AC-C0A126997C4D}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3494,7 +3409,7 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,8 +3492,8 @@
       <c r="W1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="29" t="s">
-        <v>105</v>
+      <c r="X1" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -4450,72 +4365,72 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="str">
+      <c r="A14" s="21" t="str">
         <v>02_8_1</v>
       </c>
-      <c r="B14" s="25">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="23">
         <v>5.45</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="21">
         <f t="array" ref="L14:M17">0</f>
         <v>0</v>
       </c>
-      <c r="M14" s="25">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25" t="s">
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="21">
         <v>1.25</v>
       </c>
-      <c r="Q14" s="25">
-        <v>1</v>
-      </c>
-      <c r="R14" s="25">
-        <v>1</v>
-      </c>
-      <c r="S14" s="25">
+      <c r="Q14" s="21">
+        <v>1</v>
+      </c>
+      <c r="R14" s="21">
+        <v>1</v>
+      </c>
+      <c r="S14" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T14" s="25">
-        <v>1</v>
-      </c>
-      <c r="U14" s="25">
-        <v>1</v>
-      </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25">
+      <c r="T14" s="21">
+        <v>1</v>
+      </c>
+      <c r="U14" s="21">
+        <v>1</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21">
         <v>1</v>
       </c>
       <c r="X14" s="15">
@@ -4523,71 +4438,71 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="str">
+      <c r="A15" s="21" t="str">
         <v>02_8_2</v>
       </c>
-      <c r="B15" s="25">
-        <v>1</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="26">
-        <v>1</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="23">
         <v>5.46</v>
       </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25" t="s">
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="21">
         <v>1.21</v>
       </c>
-      <c r="Q15" s="25">
-        <v>1</v>
-      </c>
-      <c r="R15" s="25">
-        <v>1</v>
-      </c>
-      <c r="S15" s="25">
+      <c r="Q15" s="21">
+        <v>1</v>
+      </c>
+      <c r="R15" s="21">
+        <v>1</v>
+      </c>
+      <c r="S15" s="21">
         <v>0.25</v>
       </c>
-      <c r="T15" s="25">
-        <v>1</v>
-      </c>
-      <c r="U15" s="25">
-        <v>1</v>
-      </c>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25">
+      <c r="T15" s="21">
+        <v>1</v>
+      </c>
+      <c r="U15" s="21">
+        <v>1</v>
+      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21">
         <v>1</v>
       </c>
       <c r="X15" s="15">
@@ -6397,71 +6312,71 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="str">
+      <c r="A41" s="21" t="str">
         <v>03_13_1</v>
       </c>
-      <c r="B41" s="25">
-        <v>1</v>
-      </c>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="26">
-        <v>0</v>
-      </c>
-      <c r="J41" s="26" t="s">
+      <c r="I41" s="22">
+        <v>0</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K41" s="23">
         <v>5.93</v>
       </c>
-      <c r="L41" s="25">
-        <v>0</v>
-      </c>
-      <c r="M41" s="25">
-        <v>0</v>
-      </c>
-      <c r="N41" s="25">
-        <v>0</v>
-      </c>
-      <c r="O41" s="25" t="s">
+      <c r="L41" s="21">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>0</v>
+      </c>
+      <c r="N41" s="21">
+        <v>0</v>
+      </c>
+      <c r="O41" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P41" s="25">
+      <c r="P41" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q41" s="25">
-        <v>1</v>
-      </c>
-      <c r="R41" s="25">
-        <v>1</v>
-      </c>
-      <c r="S41" s="25">
+      <c r="Q41" s="21">
+        <v>1</v>
+      </c>
+      <c r="R41" s="21">
+        <v>1</v>
+      </c>
+      <c r="S41" s="21">
         <v>0.2</v>
       </c>
-      <c r="T41" s="25">
-        <v>1</v>
-      </c>
-      <c r="U41" s="25">
-        <v>1</v>
-      </c>
-      <c r="V41" s="28"/>
-      <c r="W41" s="25">
+      <c r="T41" s="21">
+        <v>1</v>
+      </c>
+      <c r="U41" s="21">
+        <v>1</v>
+      </c>
+      <c r="V41" s="25"/>
+      <c r="W41" s="21">
         <v>1</v>
       </c>
       <c r="X41" s="15">
@@ -6469,71 +6384,71 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="str">
+      <c r="A42" s="21" t="str">
         <v>03_13_2</v>
       </c>
-      <c r="B42" s="25">
-        <v>1</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="21">
+        <v>1</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="26">
-        <v>0</v>
-      </c>
-      <c r="J42" s="26" t="s">
+      <c r="I42" s="22">
+        <v>0</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="23">
         <v>5.22</v>
       </c>
-      <c r="L42" s="25">
-        <v>0</v>
-      </c>
-      <c r="M42" s="25">
-        <v>0</v>
-      </c>
-      <c r="N42" s="25">
-        <v>0</v>
-      </c>
-      <c r="O42" s="25" t="s">
+      <c r="L42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
+        <v>0</v>
+      </c>
+      <c r="N42" s="21">
+        <v>0</v>
+      </c>
+      <c r="O42" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P42" s="21">
         <v>1.37</v>
       </c>
-      <c r="Q42" s="25">
-        <v>1</v>
-      </c>
-      <c r="R42" s="25">
-        <v>1</v>
-      </c>
-      <c r="S42" s="25">
+      <c r="Q42" s="21">
+        <v>1</v>
+      </c>
+      <c r="R42" s="21">
+        <v>1</v>
+      </c>
+      <c r="S42" s="21">
         <v>0.2</v>
       </c>
-      <c r="T42" s="25">
-        <v>1</v>
-      </c>
-      <c r="U42" s="25">
-        <v>1</v>
-      </c>
-      <c r="V42" s="28"/>
-      <c r="W42" s="25">
+      <c r="T42" s="21">
+        <v>1</v>
+      </c>
+      <c r="U42" s="21">
+        <v>1</v>
+      </c>
+      <c r="V42" s="25"/>
+      <c r="W42" s="21">
         <v>1</v>
       </c>
       <c r="X42" s="15">
@@ -6541,71 +6456,71 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="str">
+      <c r="A43" s="21" t="str">
         <v>03_13_3</v>
       </c>
-      <c r="B43" s="25">
-        <v>1</v>
-      </c>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="21">
+        <v>1</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="26">
-        <v>0</v>
-      </c>
-      <c r="J43" s="26" t="s">
+      <c r="I43" s="22">
+        <v>0</v>
+      </c>
+      <c r="J43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="27">
+      <c r="K43" s="23">
         <v>5.92</v>
       </c>
-      <c r="L43" s="25">
-        <v>0</v>
-      </c>
-      <c r="M43" s="25">
-        <v>0</v>
-      </c>
-      <c r="N43" s="25">
-        <v>0</v>
-      </c>
-      <c r="O43" s="25" t="s">
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21">
+        <v>0</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P43" s="25">
+      <c r="P43" s="21">
         <v>1.35</v>
       </c>
-      <c r="Q43" s="25">
-        <v>1</v>
-      </c>
-      <c r="R43" s="25">
-        <v>1</v>
-      </c>
-      <c r="S43" s="25">
+      <c r="Q43" s="21">
+        <v>1</v>
+      </c>
+      <c r="R43" s="21">
+        <v>1</v>
+      </c>
+      <c r="S43" s="21">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T43" s="25">
-        <v>1</v>
-      </c>
-      <c r="U43" s="25">
-        <v>1</v>
-      </c>
-      <c r="V43" s="28"/>
-      <c r="W43" s="25">
+      <c r="T43" s="21">
+        <v>1</v>
+      </c>
+      <c r="U43" s="21">
+        <v>1</v>
+      </c>
+      <c r="V43" s="25"/>
+      <c r="W43" s="21">
         <v>1</v>
       </c>
       <c r="X43" s="15">
@@ -6613,71 +6528,71 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="str">
+      <c r="A44" s="21" t="str">
         <v>03_15_1</v>
       </c>
-      <c r="B44" s="25">
-        <v>1</v>
-      </c>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="21">
+        <v>1</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="26">
-        <v>0</v>
-      </c>
-      <c r="J44" s="26" t="s">
+      <c r="I44" s="22">
+        <v>0</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K44" s="27">
+      <c r="K44" s="23">
         <v>6.18</v>
       </c>
-      <c r="L44" s="25">
-        <v>0</v>
-      </c>
-      <c r="M44" s="25">
-        <v>0</v>
-      </c>
-      <c r="N44" s="25">
-        <v>0</v>
-      </c>
-      <c r="O44" s="25" t="s">
+      <c r="L44" s="21">
+        <v>0</v>
+      </c>
+      <c r="M44" s="21">
+        <v>0</v>
+      </c>
+      <c r="N44" s="21">
+        <v>0</v>
+      </c>
+      <c r="O44" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P44" s="25">
+      <c r="P44" s="21">
         <v>1.35</v>
       </c>
-      <c r="Q44" s="25">
-        <v>1</v>
-      </c>
-      <c r="R44" s="25">
-        <v>1</v>
-      </c>
-      <c r="S44" s="25">
+      <c r="Q44" s="21">
+        <v>1</v>
+      </c>
+      <c r="R44" s="21">
+        <v>1</v>
+      </c>
+      <c r="S44" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T44" s="25">
-        <v>1</v>
-      </c>
-      <c r="U44" s="25">
-        <v>1</v>
-      </c>
-      <c r="V44" s="28"/>
-      <c r="W44" s="25">
+      <c r="T44" s="21">
+        <v>1</v>
+      </c>
+      <c r="U44" s="21">
+        <v>1</v>
+      </c>
+      <c r="V44" s="25"/>
+      <c r="W44" s="21">
         <v>1</v>
       </c>
       <c r="X44" s="15">
@@ -6685,71 +6600,71 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="str">
+      <c r="A45" s="21" t="str">
         <v>03_15_2</v>
       </c>
-      <c r="B45" s="25">
-        <v>1</v>
-      </c>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="21">
+        <v>1</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="26">
-        <v>0</v>
-      </c>
-      <c r="J45" s="26" t="s">
+      <c r="I45" s="22">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="23">
         <v>5.21</v>
       </c>
-      <c r="L45" s="25">
-        <v>0</v>
-      </c>
-      <c r="M45" s="25">
-        <v>0</v>
-      </c>
-      <c r="N45" s="25">
-        <v>0</v>
-      </c>
-      <c r="O45" s="25" t="s">
+      <c r="L45" s="21">
+        <v>0</v>
+      </c>
+      <c r="M45" s="21">
+        <v>0</v>
+      </c>
+      <c r="N45" s="21">
+        <v>0</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P45" s="25">
+      <c r="P45" s="21">
         <v>1.37</v>
       </c>
-      <c r="Q45" s="25">
-        <v>1</v>
-      </c>
-      <c r="R45" s="25">
-        <v>1</v>
-      </c>
-      <c r="S45" s="25">
+      <c r="Q45" s="21">
+        <v>1</v>
+      </c>
+      <c r="R45" s="21">
+        <v>1</v>
+      </c>
+      <c r="S45" s="21">
         <v>0.26</v>
       </c>
-      <c r="T45" s="25">
-        <v>1</v>
-      </c>
-      <c r="U45" s="25">
-        <v>1</v>
-      </c>
-      <c r="V45" s="28"/>
-      <c r="W45" s="25">
+      <c r="T45" s="21">
+        <v>1</v>
+      </c>
+      <c r="U45" s="21">
+        <v>1</v>
+      </c>
+      <c r="V45" s="25"/>
+      <c r="W45" s="21">
         <v>1</v>
       </c>
       <c r="X45" s="15">
@@ -6757,71 +6672,71 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="str">
+      <c r="A46" s="21" t="str">
         <v>03_15_3</v>
       </c>
-      <c r="B46" s="25">
-        <v>1</v>
-      </c>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="21">
+        <v>1</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="26">
-        <v>0</v>
-      </c>
-      <c r="J46" s="26" t="s">
+      <c r="I46" s="22">
+        <v>0</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="27">
+      <c r="K46" s="23">
         <v>5.58</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="21">
         <v>5.65</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46" s="21">
         <v>5.46</v>
       </c>
-      <c r="N46" s="25">
-        <v>0</v>
-      </c>
-      <c r="O46" s="25" t="s">
+      <c r="N46" s="21">
+        <v>0</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P46" s="25">
+      <c r="P46" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q46" s="25">
-        <v>1</v>
-      </c>
-      <c r="R46" s="25">
-        <v>1</v>
-      </c>
-      <c r="S46" s="25">
+      <c r="Q46" s="21">
+        <v>1</v>
+      </c>
+      <c r="R46" s="21">
+        <v>1</v>
+      </c>
+      <c r="S46" s="21">
         <v>0.22</v>
       </c>
-      <c r="T46" s="25">
-        <v>1</v>
-      </c>
-      <c r="U46" s="25">
-        <v>1</v>
-      </c>
-      <c r="V46" s="28"/>
-      <c r="W46" s="25">
+      <c r="T46" s="21">
+        <v>1</v>
+      </c>
+      <c r="U46" s="21">
+        <v>1</v>
+      </c>
+      <c r="V46" s="25"/>
+      <c r="W46" s="21">
         <v>1</v>
       </c>
       <c r="X46" s="15">
@@ -7060,4896 +6975,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A049B052-5FC8-493E-9463-FEB01F17F4A7}">
-  <dimension ref="A1:AG53"/>
-  <sheetViews>
-    <sheetView topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="21">
-        <v>9.77</v>
-      </c>
-      <c r="D1" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E1" s="21">
-        <v>0.44</v>
-      </c>
-      <c r="F1" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G1" s="21">
-        <v>6.26</v>
-      </c>
-      <c r="H1" s="21">
-        <v>1.53</v>
-      </c>
-      <c r="I1" s="21">
-        <v>1.69</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="21">
-        <v>1</v>
-      </c>
-      <c r="R1" s="21">
-        <v>0</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" s="21">
-        <v>1</v>
-      </c>
-      <c r="U1" s="21">
-        <v>5.62</v>
-      </c>
-      <c r="V1" s="21">
-        <v>0</v>
-      </c>
-      <c r="W1" s="21">
-        <v>0</v>
-      </c>
-      <c r="X1" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="21">
-        <v>1.22</v>
-      </c>
-      <c r="AA1" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="AD1" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="21">
-        <v>9.75</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="F2" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="G2" s="21">
-        <v>5.7</v>
-      </c>
-      <c r="H2" s="21">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="I2" s="21">
-        <v>1.65</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>1</v>
-      </c>
-      <c r="R2" s="21">
-        <v>0</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="21">
-        <v>1</v>
-      </c>
-      <c r="U2" s="21">
-        <v>5.84</v>
-      </c>
-      <c r="V2" s="21">
-        <v>0</v>
-      </c>
-      <c r="W2" s="21">
-        <v>0</v>
-      </c>
-      <c r="X2" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="21">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AA2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="AD2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="21">
-        <v>9.75</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1.18</v>
-      </c>
-      <c r="G3" s="21">
-        <v>5.83</v>
-      </c>
-      <c r="H3" s="21">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I3" s="21">
-        <v>1.59</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>1</v>
-      </c>
-      <c r="R3" s="21">
-        <v>0</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="21">
-        <v>1</v>
-      </c>
-      <c r="U3" s="21">
-        <v>5.46</v>
-      </c>
-      <c r="V3" s="21">
-        <v>0</v>
-      </c>
-      <c r="W3" s="21">
-        <v>0</v>
-      </c>
-      <c r="X3" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>1.21</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="21">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0.44</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="F4" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="H4" s="21">
-        <v>2.02</v>
-      </c>
-      <c r="I4" s="21">
-        <v>1.67</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="21">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T4" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="21">
-        <v>6.42</v>
-      </c>
-      <c r="V4" s="21">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21">
-        <v>0</v>
-      </c>
-      <c r="X4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>1.22</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>0.27</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="21">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.43</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="H5" s="21">
-        <v>2.12</v>
-      </c>
-      <c r="I5" s="21">
-        <v>1.66</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="21">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="21">
-        <v>0</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="21">
-        <v>5.41</v>
-      </c>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21">
-        <v>0</v>
-      </c>
-      <c r="X5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>1.21</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="21">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="21">
-        <v>5.67</v>
-      </c>
-      <c r="H6" s="21">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I6" s="21">
-        <v>1.62</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="21">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="21">
-        <v>5.49</v>
-      </c>
-      <c r="V6" s="21">
-        <v>0</v>
-      </c>
-      <c r="W6" s="21">
-        <v>0</v>
-      </c>
-      <c r="X6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>1.21</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="21">
-        <v>9.73</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.39</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="G7" s="21">
-        <v>5.88</v>
-      </c>
-      <c r="H7" s="21">
-        <v>2.02</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1.67</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="21">
-        <v>1</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="21">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" s="21">
-        <v>1</v>
-      </c>
-      <c r="U7" s="21">
-        <v>6.22</v>
-      </c>
-      <c r="V7" s="21">
-        <v>4.32</v>
-      </c>
-      <c r="W7" s="21">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="X7" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>1.18</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="21">
-        <v>-1</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="21">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.47</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G8" s="21">
-        <v>5.78</v>
-      </c>
-      <c r="H8" s="21">
-        <v>2.15</v>
-      </c>
-      <c r="I8" s="21">
-        <v>1.63</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="21">
-        <v>1</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="21">
-        <v>0</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T8" s="21">
-        <v>1</v>
-      </c>
-      <c r="U8" s="21">
-        <v>5.67</v>
-      </c>
-      <c r="V8" s="21">
-        <v>0</v>
-      </c>
-      <c r="W8" s="21">
-        <v>0</v>
-      </c>
-      <c r="X8" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>1.17</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="21">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1.18</v>
-      </c>
-      <c r="G9" s="21">
-        <v>5.93</v>
-      </c>
-      <c r="H9" s="21">
-        <v>1.92</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1.58</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="21">
-        <v>1</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="21">
-        <v>0</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="21">
-        <v>1</v>
-      </c>
-      <c r="U9" s="21">
-        <v>5.48</v>
-      </c>
-      <c r="V9" s="21">
-        <v>0</v>
-      </c>
-      <c r="W9" s="21">
-        <v>0</v>
-      </c>
-      <c r="X9" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>1.21</v>
-      </c>
-      <c r="AA9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="21">
-        <v>9.77</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.44</v>
-      </c>
-      <c r="F10" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="G10" s="21">
-        <v>6.11</v>
-      </c>
-      <c r="H10" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1.61</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="21">
-        <v>1</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="21">
-        <v>1</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>1</v>
-      </c>
-      <c r="R10" s="21">
-        <v>0</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="21">
-        <v>5.6</v>
-      </c>
-      <c r="V10" s="21">
-        <v>0</v>
-      </c>
-      <c r="W10" s="21">
-        <v>0</v>
-      </c>
-      <c r="X10" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z10" s="21">
-        <v>1.27</v>
-      </c>
-      <c r="AA10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="21">
-        <v>0.21</v>
-      </c>
-      <c r="AD10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="21">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.42</v>
-      </c>
-      <c r="F11" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G11" s="21">
-        <v>6.05</v>
-      </c>
-      <c r="H11" s="21">
-        <v>1.91</v>
-      </c>
-      <c r="I11" s="21">
-        <v>1.69</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="21">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="21">
-        <v>1</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>1</v>
-      </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="21">
-        <v>5.61</v>
-      </c>
-      <c r="V11" s="21">
-        <v>4.87</v>
-      </c>
-      <c r="W11" s="21">
-        <v>0</v>
-      </c>
-      <c r="X11" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>1.22</v>
-      </c>
-      <c r="AA11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="21">
-        <v>9.75</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.38</v>
-      </c>
-      <c r="F12" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="G12" s="21">
-        <v>6.01</v>
-      </c>
-      <c r="H12" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="I12" s="21">
-        <v>1.65</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="21">
-        <v>1</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>1</v>
-      </c>
-      <c r="R12" s="21">
-        <v>0</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="21">
-        <v>5.78</v>
-      </c>
-      <c r="V12" s="21">
-        <v>0</v>
-      </c>
-      <c r="W12" s="21">
-        <v>0</v>
-      </c>
-      <c r="X12" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>1.24</v>
-      </c>
-      <c r="AA12" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AD12" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="21">
-        <v>9.75</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.42</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.39</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="G13" s="21">
-        <v>5.86</v>
-      </c>
-      <c r="H13" s="21">
-        <v>1.87</v>
-      </c>
-      <c r="I13" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="21">
-        <v>1</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>1</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T13" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="21">
-        <v>5.79</v>
-      </c>
-      <c r="V13" s="21">
-        <v>5.19</v>
-      </c>
-      <c r="W13" s="21">
-        <v>0</v>
-      </c>
-      <c r="X13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>1.24</v>
-      </c>
-      <c r="AA13" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="21">
-        <v>0.16</v>
-      </c>
-      <c r="AD13" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="21">
-        <v>9.75</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.39</v>
-      </c>
-      <c r="F14" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="21">
-        <v>5.92</v>
-      </c>
-      <c r="H14" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1.56</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="21">
-        <v>1</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>1</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T14" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="21">
-        <v>6.81</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0</v>
-      </c>
-      <c r="W14" s="21">
-        <v>0</v>
-      </c>
-      <c r="X14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>1.23</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="AD14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="21">
-        <v>9.77</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G15" s="21">
-        <v>5.8</v>
-      </c>
-      <c r="H15" s="21">
-        <v>2.04</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1.61</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15" s="21">
-        <v>1</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>1</v>
-      </c>
-      <c r="R15" s="21">
-        <v>0</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T15" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="21">
-        <v>6.12</v>
-      </c>
-      <c r="V15" s="21">
-        <v>0</v>
-      </c>
-      <c r="W15" s="21">
-        <v>0</v>
-      </c>
-      <c r="X15" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>1.23</v>
-      </c>
-      <c r="AA15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="21">
-        <v>0.27</v>
-      </c>
-      <c r="AD15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="21">
-        <v>9.73</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="F16" s="21">
-        <v>1.19</v>
-      </c>
-      <c r="G16" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="H16" s="21">
-        <v>2.17</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1.49</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="21">
-        <v>1</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="21">
-        <v>1</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T16" s="21">
-        <v>1</v>
-      </c>
-      <c r="U16" s="21">
-        <v>4.92</v>
-      </c>
-      <c r="V16" s="21">
-        <v>0</v>
-      </c>
-      <c r="W16" s="21">
-        <v>0</v>
-      </c>
-      <c r="X16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>1.22</v>
-      </c>
-      <c r="AA16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="21">
-        <v>9.77</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>5.8</v>
-      </c>
-      <c r="H17" s="21">
-        <v>2.08</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1.48</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="21">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" s="21">
-        <v>1</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T17" s="21">
-        <v>1</v>
-      </c>
-      <c r="U17" s="21">
-        <v>3.83</v>
-      </c>
-      <c r="V17" s="21">
-        <v>0</v>
-      </c>
-      <c r="W17" s="21">
-        <v>0</v>
-      </c>
-      <c r="X17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>1.24</v>
-      </c>
-      <c r="AA17" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="21">
-        <v>9.77</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="F18" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G18" s="21">
-        <v>5.92</v>
-      </c>
-      <c r="H18" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1.54</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="21">
-        <v>1</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="21">
-        <v>1</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T18" s="21">
-        <v>1</v>
-      </c>
-      <c r="U18" s="21">
-        <v>5.21</v>
-      </c>
-      <c r="V18" s="21">
-        <v>5.21</v>
-      </c>
-      <c r="W18" s="21">
-        <v>4.93</v>
-      </c>
-      <c r="X18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>1.29</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="AD18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="21">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0.44</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="F19" s="21">
-        <v>1.18</v>
-      </c>
-      <c r="G19" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="H19" s="21">
-        <v>2.09</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1.64</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="21">
-        <v>1</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="21">
-        <v>1</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="21">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T19" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="21">
-        <v>6.2</v>
-      </c>
-      <c r="V19" s="21">
-        <v>0</v>
-      </c>
-      <c r="W19" s="21">
-        <v>0</v>
-      </c>
-      <c r="X19" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AA19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="AD19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="21">
-        <v>9.74</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.22</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="21">
-        <v>1.18</v>
-      </c>
-      <c r="G20" s="21">
-        <v>5.71</v>
-      </c>
-      <c r="H20" s="21">
-        <v>2.11</v>
-      </c>
-      <c r="I20" s="21">
-        <v>1.59</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="21">
-        <v>1</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O20" s="21">
-        <v>1</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="21">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T20" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U20" s="21">
-        <v>4.71</v>
-      </c>
-      <c r="V20" s="21">
-        <v>0</v>
-      </c>
-      <c r="W20" s="21">
-        <v>0</v>
-      </c>
-      <c r="X20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="AA20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AD20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="21">
-        <v>9.74</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0.38</v>
-      </c>
-      <c r="F21" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G21" s="21">
-        <v>6.02</v>
-      </c>
-      <c r="H21" s="21">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1.62</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="21">
-        <v>1</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O21" s="21">
-        <v>1</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T21" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U21" s="21">
-        <v>6.19</v>
-      </c>
-      <c r="V21" s="21">
-        <v>5.17</v>
-      </c>
-      <c r="W21" s="21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>1.21</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>0.19</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="22">
-        <v>9.75</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0.48</v>
-      </c>
-      <c r="F22" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="G22" s="22">
-        <v>5.95</v>
-      </c>
-      <c r="H22" s="22">
-        <v>1.93</v>
-      </c>
-      <c r="I22" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="22">
-        <v>1</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="T22" s="22">
-        <v>1</v>
-      </c>
-      <c r="U22" s="22">
-        <v>5.45</v>
-      </c>
-      <c r="V22" s="22">
-        <v>0</v>
-      </c>
-      <c r="W22" s="22">
-        <v>0</v>
-      </c>
-      <c r="X22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z22" s="22">
-        <v>1.25</v>
-      </c>
-      <c r="AA22" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="22">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD22" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="22">
-        <v>9.76</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.34</v>
-      </c>
-      <c r="F23" s="22">
-        <v>1.18</v>
-      </c>
-      <c r="G23" s="22">
-        <v>5.89</v>
-      </c>
-      <c r="H23" s="22">
-        <v>2.04</v>
-      </c>
-      <c r="I23" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="22">
-        <v>1</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="22">
-        <v>1</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23" s="22">
-        <v>1</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>1</v>
-      </c>
-      <c r="R23" s="22">
-        <v>0</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="T23" s="22">
-        <v>1</v>
-      </c>
-      <c r="U23" s="22">
-        <v>5.46</v>
-      </c>
-      <c r="V23" s="22">
-        <v>0</v>
-      </c>
-      <c r="W23" s="22">
-        <v>0</v>
-      </c>
-      <c r="X23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z23" s="22">
-        <v>1.21</v>
-      </c>
-      <c r="AA23" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD23" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="22">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0.37</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0.37</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="G24" s="22">
-        <v>5.73</v>
-      </c>
-      <c r="H24" s="22">
-        <v>2.17</v>
-      </c>
-      <c r="I24" s="22">
-        <v>1.44</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="22">
-        <v>1</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="22">
-        <v>1</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="22">
-        <v>1</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>1</v>
-      </c>
-      <c r="R24" s="22">
-        <v>0</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="T24" s="22">
-        <v>1</v>
-      </c>
-      <c r="U24" s="22">
-        <v>5.09</v>
-      </c>
-      <c r="V24" s="22">
-        <v>0</v>
-      </c>
-      <c r="W24" s="22">
-        <v>0</v>
-      </c>
-      <c r="X24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z24" s="22">
-        <v>1.22</v>
-      </c>
-      <c r="AA24" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="22">
-        <v>0.24</v>
-      </c>
-      <c r="AD24" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="21">
-        <v>11.56</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0.54</v>
-      </c>
-      <c r="F25" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G25" s="21">
-        <v>6.73</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="I25" s="21">
-        <v>2.35</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="21">
-        <v>1</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R25" s="21">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T25" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U25" s="21">
-        <v>6.69</v>
-      </c>
-      <c r="V25" s="21">
-        <v>0</v>
-      </c>
-      <c r="W25" s="21">
-        <v>0</v>
-      </c>
-      <c r="X25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z25" s="21">
-        <v>1.43</v>
-      </c>
-      <c r="AA25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="21">
-        <v>11.61</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="F26" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G26" s="21">
-        <v>6.85</v>
-      </c>
-      <c r="H26" s="21">
-        <v>1.93</v>
-      </c>
-      <c r="I26" s="21">
-        <v>2.29</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="21">
-        <v>1</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R26" s="21">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T26" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U26" s="21">
-        <v>6.19</v>
-      </c>
-      <c r="V26" s="21">
-        <v>0</v>
-      </c>
-      <c r="W26" s="21">
-        <v>0</v>
-      </c>
-      <c r="X26" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>1.42</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="21">
-        <v>0.31</v>
-      </c>
-      <c r="AD26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="21">
-        <v>11.55</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="F27" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G27" s="21">
-        <v>6.75</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1.99</v>
-      </c>
-      <c r="I27" s="21">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="21">
-        <v>1</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R27" s="21">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T27" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U27" s="21">
-        <v>5.61</v>
-      </c>
-      <c r="V27" s="21">
-        <v>0</v>
-      </c>
-      <c r="W27" s="21">
-        <v>0</v>
-      </c>
-      <c r="X27" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z27" s="21">
-        <v>1.41</v>
-      </c>
-      <c r="AA27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="21">
-        <v>11.59</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0.49</v>
-      </c>
-      <c r="F28" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G28" s="21">
-        <v>6.76</v>
-      </c>
-      <c r="H28" s="21">
-        <v>2.36</v>
-      </c>
-      <c r="I28" s="21">
-        <v>2</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="21">
-        <v>1</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O28" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R28" s="21">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T28" s="21">
-        <v>1</v>
-      </c>
-      <c r="U28" s="21">
-        <v>5.58</v>
-      </c>
-      <c r="V28" s="21">
-        <v>0</v>
-      </c>
-      <c r="W28" s="21">
-        <v>0</v>
-      </c>
-      <c r="X28" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z28" s="21">
-        <v>1.44</v>
-      </c>
-      <c r="AA28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="21">
-        <v>-1</v>
-      </c>
-      <c r="AD28" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="21">
-        <v>11.62</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="F29" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G29" s="21">
-        <v>6.46</v>
-      </c>
-      <c r="H29" s="21">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="I29" s="21">
-        <v>2.13</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M29" s="21">
-        <v>1</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R29" s="21">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T29" s="21">
-        <v>1</v>
-      </c>
-      <c r="U29" s="21">
-        <v>5.75</v>
-      </c>
-      <c r="V29" s="21">
-        <v>0</v>
-      </c>
-      <c r="W29" s="21">
-        <v>0</v>
-      </c>
-      <c r="X29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z29" s="21">
-        <v>1.37</v>
-      </c>
-      <c r="AA29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="21">
-        <v>11.59</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.44</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0.43</v>
-      </c>
-      <c r="F30" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G30" s="21">
-        <v>6.87</v>
-      </c>
-      <c r="H30" s="21">
-        <v>2.02</v>
-      </c>
-      <c r="I30" s="21">
-        <v>2.06</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K30" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M30" s="21">
-        <v>1</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O30" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R30" s="21">
-        <v>0</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T30" s="21">
-        <v>1</v>
-      </c>
-      <c r="U30" s="21">
-        <v>6.03</v>
-      </c>
-      <c r="V30" s="21">
-        <v>0</v>
-      </c>
-      <c r="W30" s="21">
-        <v>0</v>
-      </c>
-      <c r="X30" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z30" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="AA30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="21">
-        <v>11.6</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.27</v>
-      </c>
-      <c r="E31" s="21">
-        <v>0.47</v>
-      </c>
-      <c r="F31" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G31" s="21">
-        <v>6.72</v>
-      </c>
-      <c r="H31" s="21">
-        <v>1.99</v>
-      </c>
-      <c r="I31" s="21">
-        <v>2.33</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K31" s="21">
-        <v>1</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M31" s="21">
-        <v>1</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P31" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>1</v>
-      </c>
-      <c r="R31" s="21">
-        <v>0</v>
-      </c>
-      <c r="S31" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T31" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U31" s="21">
-        <v>5.54</v>
-      </c>
-      <c r="V31" s="21">
-        <v>0</v>
-      </c>
-      <c r="W31" s="21">
-        <v>0</v>
-      </c>
-      <c r="X31" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z31" s="21">
-        <v>1.42</v>
-      </c>
-      <c r="AA31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AD31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="21">
-        <v>11.6</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E32" s="21">
-        <v>0.49</v>
-      </c>
-      <c r="F32" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G32" s="21">
-        <v>6.46</v>
-      </c>
-      <c r="H32" s="21">
-        <v>2.04</v>
-      </c>
-      <c r="I32" s="21">
-        <v>2.52</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="21">
-        <v>1</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="21">
-        <v>1</v>
-      </c>
-      <c r="N32" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>1</v>
-      </c>
-      <c r="R32" s="21">
-        <v>0</v>
-      </c>
-      <c r="S32" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T32" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U32" s="21">
-        <v>5.75</v>
-      </c>
-      <c r="V32" s="21">
-        <v>0</v>
-      </c>
-      <c r="W32" s="21">
-        <v>0</v>
-      </c>
-      <c r="X32" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z32" s="21">
-        <v>1.48</v>
-      </c>
-      <c r="AA32" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="AD32" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="21">
-        <v>11.67</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0.39</v>
-      </c>
-      <c r="F33" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G33" s="21">
-        <v>6.77</v>
-      </c>
-      <c r="H33" s="21">
-        <v>2.19</v>
-      </c>
-      <c r="I33" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="21">
-        <v>1</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M33" s="21">
-        <v>1</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P33" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>1</v>
-      </c>
-      <c r="R33" s="21">
-        <v>0</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T33" s="21">
-        <v>-1</v>
-      </c>
-      <c r="U33" s="21">
-        <v>6.19</v>
-      </c>
-      <c r="V33" s="21">
-        <v>0</v>
-      </c>
-      <c r="W33" s="21">
-        <v>0</v>
-      </c>
-      <c r="X33" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z33" s="21">
-        <v>1.38</v>
-      </c>
-      <c r="AA33" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AD33" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="22">
-        <v>11.56</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0.47</v>
-      </c>
-      <c r="F34" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="G34" s="22">
-        <v>6.19</v>
-      </c>
-      <c r="H34" s="22">
-        <v>2.77</v>
-      </c>
-      <c r="I34" s="22">
-        <v>2.16</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O34" s="22">
-        <v>1</v>
-      </c>
-      <c r="P34" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>0</v>
-      </c>
-      <c r="S34" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="22">
-        <v>5.93</v>
-      </c>
-      <c r="V34" s="22">
-        <v>0</v>
-      </c>
-      <c r="W34" s="22">
-        <v>0</v>
-      </c>
-      <c r="X34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="22">
-        <v>11.61</v>
-      </c>
-      <c r="D35" s="22">
-        <v>0.36</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0.49</v>
-      </c>
-      <c r="F35" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="G35" s="22">
-        <v>7.01</v>
-      </c>
-      <c r="H35" s="22">
-        <v>1.86</v>
-      </c>
-      <c r="I35" s="22">
-        <v>2.17</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K35" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" s="22">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O35" s="22">
-        <v>1</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q35" s="22">
-        <v>1</v>
-      </c>
-      <c r="R35" s="22">
-        <v>0</v>
-      </c>
-      <c r="S35" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T35" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U35" s="22">
-        <v>5.22</v>
-      </c>
-      <c r="V35" s="22">
-        <v>0</v>
-      </c>
-      <c r="W35" s="22">
-        <v>0</v>
-      </c>
-      <c r="X35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z35" s="22">
-        <v>1.37</v>
-      </c>
-      <c r="AA35" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="AD35" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="22">
-        <v>11.6</v>
-      </c>
-      <c r="D36" s="22">
-        <v>0.31</v>
-      </c>
-      <c r="E36" s="22">
-        <v>0.46</v>
-      </c>
-      <c r="F36" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="G36" s="22">
-        <v>6.24</v>
-      </c>
-      <c r="H36" s="22">
-        <v>2.38</v>
-      </c>
-      <c r="I36" s="22">
-        <v>2.39</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O36" s="22">
-        <v>1</v>
-      </c>
-      <c r="P36" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q36" s="22">
-        <v>1</v>
-      </c>
-      <c r="R36" s="22">
-        <v>0</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U36" s="22">
-        <v>5.92</v>
-      </c>
-      <c r="V36" s="22">
-        <v>0</v>
-      </c>
-      <c r="W36" s="22">
-        <v>0</v>
-      </c>
-      <c r="X36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z36" s="22">
-        <v>1.35</v>
-      </c>
-      <c r="AA36" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="22">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD36" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="21">
-        <v>11.56</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G37" s="21">
-        <v>6.7</v>
-      </c>
-      <c r="H37" s="21">
-        <v>2.02</v>
-      </c>
-      <c r="I37" s="21">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="21">
-        <v>1</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O37" s="21">
-        <v>1</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R37" s="21">
-        <v>0</v>
-      </c>
-      <c r="S37" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T37" s="21">
-        <v>1</v>
-      </c>
-      <c r="U37" s="21">
-        <v>5.93</v>
-      </c>
-      <c r="V37" s="21">
-        <v>0</v>
-      </c>
-      <c r="W37" s="21">
-        <v>0</v>
-      </c>
-      <c r="X37" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z37" s="21">
-        <v>1.41</v>
-      </c>
-      <c r="AA37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="21">
-        <v>0.22</v>
-      </c>
-      <c r="AD37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="21">
-        <v>11.57</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="E38" s="21">
-        <v>0.49</v>
-      </c>
-      <c r="F38" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G38" s="21">
-        <v>6.56</v>
-      </c>
-      <c r="H38" s="21">
-        <v>1.94</v>
-      </c>
-      <c r="I38" s="21">
-        <v>2.42</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="21">
-        <v>1</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="21">
-        <v>1</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q38" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R38" s="21">
-        <v>0</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T38" s="21">
-        <v>1</v>
-      </c>
-      <c r="U38" s="21">
-        <v>5.66</v>
-      </c>
-      <c r="V38" s="21">
-        <v>0</v>
-      </c>
-      <c r="W38" s="21">
-        <v>0</v>
-      </c>
-      <c r="X38" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z38" s="21">
-        <v>1.38</v>
-      </c>
-      <c r="AA38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="21">
-        <v>0.27</v>
-      </c>
-      <c r="AD38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="21">
-        <v>11.58</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.22</v>
-      </c>
-      <c r="E39" s="21">
-        <v>0.48</v>
-      </c>
-      <c r="F39" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G39" s="21">
-        <v>6.48</v>
-      </c>
-      <c r="H39" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I39" s="21">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39" s="21">
-        <v>1</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O39" s="21">
-        <v>1</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q39" s="21">
-        <v>-1</v>
-      </c>
-      <c r="R39" s="21">
-        <v>0</v>
-      </c>
-      <c r="S39" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T39" s="21">
-        <v>1</v>
-      </c>
-      <c r="U39" s="21">
-        <v>5.15</v>
-      </c>
-      <c r="V39" s="21">
-        <v>0</v>
-      </c>
-      <c r="W39" s="21">
-        <v>0</v>
-      </c>
-      <c r="X39" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z39" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="AA39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="22">
-        <v>11.58</v>
-      </c>
-      <c r="D40" s="22">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E40" s="22">
-        <v>0.47</v>
-      </c>
-      <c r="F40" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="G40" s="22">
-        <v>6.69</v>
-      </c>
-      <c r="H40" s="22">
-        <v>2.15</v>
-      </c>
-      <c r="I40" s="22">
-        <v>2.13</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M40" s="22">
-        <v>1</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O40" s="22">
-        <v>1</v>
-      </c>
-      <c r="P40" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="22">
-        <v>0</v>
-      </c>
-      <c r="S40" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U40" s="22">
-        <v>6.18</v>
-      </c>
-      <c r="V40" s="22">
-        <v>0</v>
-      </c>
-      <c r="W40" s="22">
-        <v>0</v>
-      </c>
-      <c r="X40" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z40" s="22">
-        <v>1.35</v>
-      </c>
-      <c r="AA40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="22">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="22">
-        <v>11.54</v>
-      </c>
-      <c r="D41" s="22">
-        <v>0.23</v>
-      </c>
-      <c r="E41" s="22">
-        <v>0.48</v>
-      </c>
-      <c r="F41" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="G41" s="22">
-        <v>6.69</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.96</v>
-      </c>
-      <c r="I41" s="22">
-        <v>2.25</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M41" s="22">
-        <v>1</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O41" s="22">
-        <v>1</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R41" s="22">
-        <v>0</v>
-      </c>
-      <c r="S41" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U41" s="22">
-        <v>5.21</v>
-      </c>
-      <c r="V41" s="22">
-        <v>0</v>
-      </c>
-      <c r="W41" s="22">
-        <v>0</v>
-      </c>
-      <c r="X41" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z41" s="22">
-        <v>1.37</v>
-      </c>
-      <c r="AA41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="22">
-        <v>0.26</v>
-      </c>
-      <c r="AD41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="22">
-        <v>11.57</v>
-      </c>
-      <c r="D42" s="22">
-        <v>0.31</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0.45</v>
-      </c>
-      <c r="F42" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="G42" s="22">
-        <v>7.25</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I42" s="22">
-        <v>1.46</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M42" s="22">
-        <v>1</v>
-      </c>
-      <c r="N42" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O42" s="22">
-        <v>1</v>
-      </c>
-      <c r="P42" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q42" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R42" s="22">
-        <v>0</v>
-      </c>
-      <c r="S42" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T42" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U42" s="22">
-        <v>5.58</v>
-      </c>
-      <c r="V42" s="22">
-        <v>5.65</v>
-      </c>
-      <c r="W42" s="22">
-        <v>5.46</v>
-      </c>
-      <c r="X42" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z42" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="AA42" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="AD42" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="21">
-        <v>11.74</v>
-      </c>
-      <c r="D43" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="E43" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="F43" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G43" s="21">
-        <v>7.15</v>
-      </c>
-      <c r="H43" s="21">
-        <v>2.11</v>
-      </c>
-      <c r="I43" s="21">
-        <v>1.88</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43" s="21">
-        <v>1</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M43" s="21">
-        <v>1</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O43" s="21">
-        <v>1</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q43" s="21">
-        <v>1</v>
-      </c>
-      <c r="R43" s="21">
-        <v>0</v>
-      </c>
-      <c r="S43" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T43" s="21">
-        <v>1</v>
-      </c>
-      <c r="U43" s="21">
-        <v>5.92</v>
-      </c>
-      <c r="V43" s="21">
-        <v>0</v>
-      </c>
-      <c r="W43" s="21">
-        <v>0</v>
-      </c>
-      <c r="X43" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z43" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="AA43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="21">
-        <v>0.31</v>
-      </c>
-      <c r="AD43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="21">
-        <v>11.78</v>
-      </c>
-      <c r="D44" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="E44" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G44" s="21">
-        <v>6.35</v>
-      </c>
-      <c r="H44" s="21">
-        <v>2.02</v>
-      </c>
-      <c r="I44" s="21">
-        <v>2.65</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="21">
-        <v>1</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" s="21">
-        <v>1</v>
-      </c>
-      <c r="N44" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O44" s="21">
-        <v>1</v>
-      </c>
-      <c r="P44" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q44" s="21">
-        <v>1</v>
-      </c>
-      <c r="R44" s="21">
-        <v>0</v>
-      </c>
-      <c r="S44" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T44" s="21">
-        <v>1</v>
-      </c>
-      <c r="U44" s="21">
-        <v>7.19</v>
-      </c>
-      <c r="V44" s="21">
-        <v>0</v>
-      </c>
-      <c r="W44" s="21">
-        <v>0</v>
-      </c>
-      <c r="X44" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z44" s="21">
-        <v>1.37</v>
-      </c>
-      <c r="AA44" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="21">
-        <v>0.27</v>
-      </c>
-      <c r="AD44" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="21">
-        <v>11.73</v>
-      </c>
-      <c r="D45" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="E45" s="21">
-        <v>0.48</v>
-      </c>
-      <c r="F45" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G45" s="21">
-        <v>6.92</v>
-      </c>
-      <c r="H45" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="I45" s="21">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45" s="21">
-        <v>1</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M45" s="21">
-        <v>1</v>
-      </c>
-      <c r="N45" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O45" s="21">
-        <v>1</v>
-      </c>
-      <c r="P45" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q45" s="21">
-        <v>1</v>
-      </c>
-      <c r="R45" s="21">
-        <v>0</v>
-      </c>
-      <c r="S45" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T45" s="21">
-        <v>1</v>
-      </c>
-      <c r="U45" s="21">
-        <v>5.65</v>
-      </c>
-      <c r="V45" s="21">
-        <v>0</v>
-      </c>
-      <c r="W45" s="21">
-        <v>0</v>
-      </c>
-      <c r="X45" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z45" s="21">
-        <v>1.41</v>
-      </c>
-      <c r="AA45" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="AD45" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="21">
-        <v>11.56</v>
-      </c>
-      <c r="D46" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E46" s="21">
-        <v>0.48</v>
-      </c>
-      <c r="F46" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G46" s="21">
-        <v>6.95</v>
-      </c>
-      <c r="H46" s="21">
-        <v>2.79</v>
-      </c>
-      <c r="I46" s="21">
-        <v>1.27</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K46" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N46" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O46" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P46" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>1</v>
-      </c>
-      <c r="R46" s="21">
-        <v>0</v>
-      </c>
-      <c r="S46" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T46" s="21">
-        <v>1</v>
-      </c>
-      <c r="U46" s="21">
-        <v>6.18</v>
-      </c>
-      <c r="V46" s="21">
-        <v>0</v>
-      </c>
-      <c r="W46" s="21">
-        <v>0</v>
-      </c>
-      <c r="X46" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z46" s="21">
-        <v>1.45</v>
-      </c>
-      <c r="AA46" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="AD46" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="21">
-        <v>11.62</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E47" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="F47" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G47" s="21">
-        <v>6.77</v>
-      </c>
-      <c r="H47" s="21">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I47" s="21">
-        <v>1.99</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K47" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M47" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N47" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O47" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P47" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q47" s="21">
-        <v>1</v>
-      </c>
-      <c r="R47" s="21">
-        <v>0</v>
-      </c>
-      <c r="S47" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T47" s="21">
-        <v>1</v>
-      </c>
-      <c r="U47" s="21">
-        <v>6.19</v>
-      </c>
-      <c r="V47" s="21">
-        <v>0</v>
-      </c>
-      <c r="W47" s="21">
-        <v>0</v>
-      </c>
-      <c r="X47" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z47" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="AA47" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="AD47" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="21">
-        <v>11.78</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F48" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="G48" s="21">
-        <v>6.31</v>
-      </c>
-      <c r="H48" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="I48" s="21">
-        <v>2.41</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="21">
-        <v>-1</v>
-      </c>
-      <c r="N48" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P48" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q48" s="21">
-        <v>1</v>
-      </c>
-      <c r="R48" s="21">
-        <v>0</v>
-      </c>
-      <c r="S48" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T48" s="21">
-        <v>1</v>
-      </c>
-      <c r="U48" s="21">
-        <v>5.71</v>
-      </c>
-      <c r="V48" s="21">
-        <v>0</v>
-      </c>
-      <c r="W48" s="21">
-        <v>0</v>
-      </c>
-      <c r="X48" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z48" s="21">
-        <v>1.44</v>
-      </c>
-      <c r="AA48" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="21">
-        <v>-1</v>
-      </c>
-      <c r="AD48" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I49" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49">
-        <f>SUMPRODUCT(K1:K24,$AC1:$AC24)/8</f>
-        <v>0.10874999999999999</v>
-      </c>
-      <c r="M49">
-        <f>SUMPRODUCT(M1:M24,$AC1:$AC24)/8</f>
-        <v>-0.16374999999999995</v>
-      </c>
-      <c r="O49">
-        <f>SUMPRODUCT(O1:O24,$AC1:$AC24)/8</f>
-        <v>0.11624999999999999</v>
-      </c>
-      <c r="Q49">
-        <f>SUMPRODUCT(Q1:Q24,$AC1:$AC24)/8</f>
-        <v>0.15125</v>
-      </c>
-      <c r="T49">
-        <f>SUMPRODUCT(T1:T24,$AC1:$AC24)/8</f>
-        <v>-0.17374999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="J50" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K50">
-        <f>SUMPRODUCT(K1:K24,$AG1:$AG24)/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="M50">
-        <f>SUMPRODUCT(M1:M24,$AG1:$AG24)/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="O50">
-        <f>SUMPRODUCT(O1:O24,$AG1:$AG24)/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="Q50">
-        <f>SUMPRODUCT(Q1:Q24,$AG1:$AG24)/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="T50">
-        <f>SUMPRODUCT(T1:T24,$AG1:$AG24)/8</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="51" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
-        <v>102</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K51">
-        <f>SUMPRODUCT(K25:K48,$AC25:$AC48)/8</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="M51">
-        <f>SUMPRODUCT(M25:M48,$AC25:$AC48)/8</f>
-        <v>1.0000000000000037E-2</v>
-      </c>
-      <c r="O51">
-        <f>SUMPRODUCT(O25:O48,$AC25:$AC48)/8</f>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="Q51">
-        <f>SUMPRODUCT(Q25:Q48,$AC25:$AC48)/8</f>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="T51">
-        <f>SUMPRODUCT(T25:T48,$AC25:$AC48)/8</f>
-        <v>-0.28250000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="J52" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K52">
-        <f>SUMPRODUCT(K25:K48,$AG25:$AG48)/8</f>
-        <v>-0.75</v>
-      </c>
-      <c r="M52">
-        <f>SUMPRODUCT(M25:M48,$AG25:$AG48)/8</f>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f>SUMPRODUCT(O25:O48,$AG25:$AG48)/8</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q52">
-        <f>SUMPRODUCT(Q25:Q48,$AG25:$AG48)/8</f>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f>SUMPRODUCT(T25:T48,$AG25:$AG48)/8</f>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="K53">
-        <f>SUMPRODUCT(K25:K48,$AC25:$AC48,Q25:Q48)</f>
-        <v>8.0000000000000293E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="K50" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/99_Other/Dataset/Val_2_samples_dataset.xlsx
+++ b/99_Other/Dataset/Val_2_samples_dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\lzm-validation\99_Other\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svegorov\Nextcloud\SPValidations\Validations\SP_Val_2\99_Other\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A1217-F4AA-4047-A50B-85343459A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="2" r:id="rId1"/>
@@ -339,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,13 +698,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B49"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DUT id" dataDxfId="1">
+    <tableColumn id="1" name="DUT id" dataDxfId="1">
       <calculatedColumnFormula>Val2_samples_id</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DUT type" dataDxfId="0"/>
+    <tableColumn id="2" name="DUT type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -973,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1340,7 +1339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1795,7 +1794,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1">
       <formula1>VariableList</formula1>
     </dataValidation>
   </dataValidations>
@@ -1807,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3396,7 +3395,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:U1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:U1">
       <formula1>VariableList</formula1>
     </dataValidation>
   </dataValidations>
@@ -3405,11 +3404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3595,7 @@
         <v>90</v>
       </c>
       <c r="I3" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>91</v>
@@ -3668,7 +3667,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>91</v>
@@ -3813,7 +3812,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>93</v>
@@ -3885,7 +3884,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>93</v>
@@ -4029,7 +4028,7 @@
         <v>90</v>
       </c>
       <c r="I9" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>91</v>
@@ -4102,7 +4101,7 @@
         <v>90</v>
       </c>
       <c r="I10" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>91</v>
@@ -4246,7 +4245,7 @@
         <v>90</v>
       </c>
       <c r="I12" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>93</v>
@@ -4318,7 +4317,7 @@
         <v>90</v>
       </c>
       <c r="I13" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>93</v>
@@ -4389,7 +4388,7 @@
       <c r="H14" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -4462,8 +4461,8 @@
       <c r="H15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="22">
-        <v>1</v>
+      <c r="I15" s="19">
+        <v>0</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>91</v>
@@ -4535,7 +4534,7 @@
         <v>96</v>
       </c>
       <c r="I16" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>91</v>
@@ -6336,7 +6335,7 @@
       <c r="H41" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="19">
         <v>0</v>
       </c>
       <c r="J41" s="22" t="s">
@@ -6408,7 +6407,7 @@
       <c r="H42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="19">
         <v>0</v>
       </c>
       <c r="J42" s="22" t="s">
@@ -6480,7 +6479,7 @@
       <c r="H43" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="19">
         <v>0</v>
       </c>
       <c r="J43" s="22" t="s">
@@ -6552,7 +6551,7 @@
       <c r="H44" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="19">
         <v>0</v>
       </c>
       <c r="J44" s="22" t="s">
@@ -6624,7 +6623,7 @@
       <c r="H45" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="19">
         <v>0</v>
       </c>
       <c r="J45" s="22" t="s">
@@ -6696,7 +6695,7 @@
       <c r="H46" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="19">
         <v>0</v>
       </c>
       <c r="J46" s="22" t="s">
@@ -6961,9 +6960,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:X1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:W1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:W1">
       <formula1>VariableList</formula1>
     </dataValidation>
   </dataValidations>
@@ -6972,7 +6971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
